--- a/Jogos_do_Dia_FlashScore/2023-07-13_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2023-07-13_Jogos_do_Dia_FlashScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="461">
   <si>
     <t>Date</t>
   </si>
@@ -532,6 +532,9 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
@@ -646,6 +649,9 @@
     <t>Linfield (Nir)</t>
   </si>
   <si>
+    <t>Maribor (Slo)</t>
+  </si>
+  <si>
     <t>Nublense (Chi)</t>
   </si>
   <si>
@@ -745,6 +751,9 @@
     <t>Vllaznia (Alb)</t>
   </si>
   <si>
+    <t>Birkirkara (Mlt)</t>
+  </si>
+  <si>
     <t>A. Italiano (Chi)</t>
   </si>
   <si>
@@ -802,6 +811,9 @@
     <t>1.17</t>
   </si>
   <si>
+    <t>1.25</t>
+  </si>
+  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -835,6 +847,9 @@
     <t>4.50</t>
   </si>
   <si>
+    <t>3.75</t>
+  </si>
+  <si>
     <t>2.62</t>
   </si>
   <si>
@@ -985,6 +1000,9 @@
     <t>6.55</t>
   </si>
   <si>
+    <t>3.62</t>
+  </si>
+  <si>
     <t>6.85</t>
   </si>
   <si>
@@ -997,9 +1015,6 @@
     <t>1.20</t>
   </si>
   <si>
-    <t>1.25</t>
-  </si>
-  <si>
     <t>1.06</t>
   </si>
   <si>
@@ -1027,6 +1042,9 @@
     <t>1.42</t>
   </si>
   <si>
+    <t>1.26</t>
+  </si>
+  <si>
     <t>1.08</t>
   </si>
   <si>
@@ -1141,6 +1159,9 @@
     <t>6.95</t>
   </si>
   <si>
+    <t>11.50</t>
+  </si>
+  <si>
     <t>5.30</t>
   </si>
   <si>
@@ -1153,9 +1174,6 @@
     <t>1.22</t>
   </si>
   <si>
-    <t>3.75</t>
-  </si>
-  <si>
     <t>4.00</t>
   </si>
   <si>
@@ -1234,6 +1252,9 @@
     <t>2.32</t>
   </si>
   <si>
+    <t>4.60</t>
+  </si>
+  <si>
     <t>2.47</t>
   </si>
   <si>
@@ -1276,6 +1297,9 @@
     <t>2.49</t>
   </si>
   <si>
+    <t>1.78</t>
+  </si>
+  <si>
     <t>1.49</t>
   </si>
   <si>
@@ -1313,9 +1337,6 @@
   </si>
   <si>
     <t>5.10</t>
-  </si>
-  <si>
-    <t>4.60</t>
   </si>
   <si>
     <t>4.80</t>
@@ -1733,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FG34"/>
+  <dimension ref="A1:FG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2238,16 +2259,16 @@
         <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G2">
         <v>2.5</v>
@@ -2274,10 +2295,10 @@
         <v>2.63</v>
       </c>
       <c r="O2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q2">
         <v>2.03</v>
@@ -2286,10 +2307,10 @@
         <v>1.78</v>
       </c>
       <c r="S2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="U2">
         <v>3.25</v>
@@ -2298,10 +2319,10 @@
         <v>1.33</v>
       </c>
       <c r="W2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y2">
         <v>6.45</v>
@@ -2310,10 +2331,10 @@
         <v>1.09</v>
       </c>
       <c r="AA2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AB2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AC2">
         <v>7.5</v>
@@ -2322,10 +2343,10 @@
         <v>1.07</v>
       </c>
       <c r="AE2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AF2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG2">
         <v>1.85</v>
@@ -2382,10 +2403,10 @@
         <v>8</v>
       </c>
       <c r="AY2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AZ2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="BA2">
         <v>1.05</v>
@@ -2394,10 +2415,10 @@
         <v>7.1</v>
       </c>
       <c r="BC2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="BD2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BE2">
         <v>1.33</v>
@@ -2406,10 +2427,10 @@
         <v>3.25</v>
       </c>
       <c r="BG2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BH2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="BI2">
         <v>1.52</v>
@@ -2418,10 +2439,10 @@
         <v>2.36</v>
       </c>
       <c r="BK2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BL2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="BM2">
         <v>2.08</v>
@@ -2430,10 +2451,10 @@
         <v>1.73</v>
       </c>
       <c r="BO2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BP2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="BQ2">
         <v>2.84</v>
@@ -2442,10 +2463,10 @@
         <v>1.37</v>
       </c>
       <c r="BS2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BT2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="BU2">
         <v>3.75</v>
@@ -2454,10 +2475,10 @@
         <v>1.25</v>
       </c>
       <c r="BW2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BX2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BY2">
         <v>6</v>
@@ -2466,10 +2487,10 @@
         <v>1.08</v>
       </c>
       <c r="CA2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="CB2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="CC2">
         <v>7</v>
@@ -2478,10 +2499,10 @@
         <v>1.08</v>
       </c>
       <c r="CE2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="CF2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="CG2">
         <v>11.5</v>
@@ -2490,10 +2511,10 @@
         <v>1.02</v>
       </c>
       <c r="CI2" t="s">
+        <v>362</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>356</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>350</v>
       </c>
       <c r="CK2">
         <v>10.5</v>
@@ -2502,10 +2523,10 @@
         <v>1.03</v>
       </c>
       <c r="CM2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CN2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="CS2">
         <v>17</v>
@@ -2514,7 +2535,7 @@
         <v>1.01</v>
       </c>
       <c r="CU2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CV2">
         <v>1.01</v>
@@ -2675,16 +2696,16 @@
         <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G3">
         <v>3.5</v>
@@ -2711,10 +2732,10 @@
         <v>3.25</v>
       </c>
       <c r="O3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>1.7</v>
@@ -2723,10 +2744,10 @@
         <v>2.08</v>
       </c>
       <c r="S3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="T3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="U3">
         <v>2.5</v>
@@ -2735,10 +2756,10 @@
         <v>1.5</v>
       </c>
       <c r="W3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="X3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -2747,10 +2768,10 @@
         <v>1.15</v>
       </c>
       <c r="AA3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AB3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AC3">
         <v>5.5</v>
@@ -2759,10 +2780,10 @@
         <v>1.13</v>
       </c>
       <c r="AE3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AF3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AG3">
         <v>3</v>
@@ -2822,7 +2843,7 @@
         <v>1.01</v>
       </c>
       <c r="AZ3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="BA3">
         <v>1.01</v>
@@ -2831,10 +2852,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BC3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="BD3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="BE3">
         <v>1.2</v>
@@ -2843,10 +2864,10 @@
         <v>4.33</v>
       </c>
       <c r="BG3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="BH3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="BI3">
         <v>1.33</v>
@@ -2855,10 +2876,10 @@
         <v>3.04</v>
       </c>
       <c r="BK3" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BL3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="BM3">
         <v>1.67</v>
@@ -2867,10 +2888,10 @@
         <v>2.15</v>
       </c>
       <c r="BO3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="BP3" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="BQ3">
         <v>2.1</v>
@@ -2879,10 +2900,10 @@
         <v>1.7</v>
       </c>
       <c r="BS3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="BT3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="BU3">
         <v>2.63</v>
@@ -2891,10 +2912,10 @@
         <v>1.44</v>
       </c>
       <c r="BW3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BX3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BY3">
         <v>4.33</v>
@@ -2903,10 +2924,10 @@
         <v>1.16</v>
       </c>
       <c r="CA3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="CB3" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="CC3">
         <v>4.5</v>
@@ -2915,10 +2936,10 @@
         <v>1.17</v>
       </c>
       <c r="CE3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="CF3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="CG3">
         <v>8.699999999999999</v>
@@ -2927,10 +2948,10 @@
         <v>1.02</v>
       </c>
       <c r="CI3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="CJ3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="CK3">
         <v>8</v>
@@ -2939,10 +2960,10 @@
         <v>1.06</v>
       </c>
       <c r="CM3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="CN3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="CS3">
         <v>12</v>
@@ -2951,10 +2972,10 @@
         <v>1.02</v>
       </c>
       <c r="CU3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="CV3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="DA3">
         <v>17</v>
@@ -3112,16 +3133,16 @@
         <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G4">
         <v>1.4</v>
@@ -3148,10 +3169,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q4">
         <v>1.75</v>
@@ -3160,10 +3181,10 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="U4">
         <v>2.03</v>
@@ -3172,10 +3193,10 @@
         <v>1.78</v>
       </c>
       <c r="W4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y4">
         <v>3.4</v>
@@ -3184,10 +3205,10 @@
         <v>1.29</v>
       </c>
       <c r="AA4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AB4" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="AC4">
         <v>4.33</v>
@@ -3196,10 +3217,10 @@
         <v>1.2</v>
       </c>
       <c r="AE4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AF4" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG4">
         <v>1.09</v>
@@ -3241,7 +3262,7 @@
         <v>1.02</v>
       </c>
       <c r="AZ4" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="BA4">
         <v>1.03</v>
@@ -3250,10 +3271,10 @@
         <v>13.5</v>
       </c>
       <c r="BC4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="BD4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BE4">
         <v>1.11</v>
@@ -3262,10 +3283,10 @@
         <v>6</v>
       </c>
       <c r="BG4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BH4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="BI4">
         <v>1.14</v>
@@ -3274,10 +3295,10 @@
         <v>4.65</v>
       </c>
       <c r="BK4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BL4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="BM4">
         <v>1.4</v>
@@ -3286,10 +3307,10 @@
         <v>2.88</v>
       </c>
       <c r="BO4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BP4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BQ4">
         <v>1.83</v>
@@ -3298,10 +3319,10 @@
         <v>1.98</v>
       </c>
       <c r="BS4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BT4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BU4">
         <v>1.91</v>
@@ -3310,10 +3331,10 @@
         <v>1.8</v>
       </c>
       <c r="BW4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BX4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BY4">
         <v>2.72</v>
@@ -3322,10 +3343,10 @@
         <v>1.4</v>
       </c>
       <c r="CA4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="CB4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="CC4">
         <v>3.25</v>
@@ -3334,10 +3355,10 @@
         <v>1.33</v>
       </c>
       <c r="CE4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="CF4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="CG4">
         <v>5.05</v>
@@ -3346,10 +3367,10 @@
         <v>1.12</v>
       </c>
       <c r="CI4" t="s">
+        <v>362</v>
+      </c>
+      <c r="CJ4" t="s">
         <v>356</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>350</v>
       </c>
       <c r="CK4">
         <v>5</v>
@@ -3358,10 +3379,10 @@
         <v>1.14</v>
       </c>
       <c r="CM4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CN4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="CO4">
         <v>9.4</v>
@@ -3370,10 +3391,10 @@
         <v>1.01</v>
       </c>
       <c r="CQ4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CR4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CS4">
         <v>8.5</v>
@@ -3382,10 +3403,10 @@
         <v>1.05</v>
       </c>
       <c r="CU4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CV4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="DA4">
         <v>12</v>
@@ -3394,10 +3415,10 @@
         <v>1.02</v>
       </c>
       <c r="DC4" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="DD4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="DE4">
         <v>17</v>
@@ -3406,10 +3427,10 @@
         <v>1.01</v>
       </c>
       <c r="DG4" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="DH4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="DI4">
         <v>1.11</v>
@@ -3543,16 +3564,16 @@
         <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G5">
         <v>2.6</v>
@@ -3579,10 +3600,10 @@
         <v>2.63</v>
       </c>
       <c r="O5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q5">
         <v>2.15</v>
@@ -3591,10 +3612,10 @@
         <v>1.68</v>
       </c>
       <c r="S5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="T5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="U5">
         <v>3.25</v>
@@ -3603,10 +3624,10 @@
         <v>1.33</v>
       </c>
       <c r="W5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y5">
         <v>7.2</v>
@@ -3615,10 +3636,10 @@
         <v>1.08</v>
       </c>
       <c r="AA5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AB5" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AC5">
         <v>7.5</v>
@@ -3627,10 +3648,10 @@
         <v>1.07</v>
       </c>
       <c r="AE5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AG5">
         <v>1.91</v>
@@ -3687,10 +3708,10 @@
         <v>7.5</v>
       </c>
       <c r="AY5" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AZ5" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="BA5">
         <v>1.07</v>
@@ -3699,10 +3720,10 @@
         <v>6.35</v>
       </c>
       <c r="BC5" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="BD5" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BE5">
         <v>1.36</v>
@@ -3711,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="BG5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BH5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BI5">
         <v>1.62</v>
@@ -3723,10 +3744,10 @@
         <v>2.16</v>
       </c>
       <c r="BK5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BL5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BM5">
         <v>2.2</v>
@@ -3735,10 +3756,10 @@
         <v>1.65</v>
       </c>
       <c r="BO5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="BP5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BQ5">
         <v>3.2</v>
@@ -3747,10 +3768,10 @@
         <v>1.3</v>
       </c>
       <c r="BS5" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="BT5" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BU5">
         <v>4</v>
@@ -3759,10 +3780,10 @@
         <v>1.22</v>
       </c>
       <c r="BW5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BX5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BY5">
         <v>6.85</v>
@@ -3771,10 +3792,10 @@
         <v>1.06</v>
       </c>
       <c r="CA5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="CB5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="CC5">
         <v>7.5</v>
@@ -3783,10 +3804,10 @@
         <v>1.07</v>
       </c>
       <c r="CE5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="CF5" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="CG5">
         <v>12.5</v>
@@ -3795,7 +3816,7 @@
         <v>1.01</v>
       </c>
       <c r="CI5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="CJ5">
         <v>1.01</v>
@@ -3807,10 +3828,10 @@
         <v>1.02</v>
       </c>
       <c r="CM5" t="s">
+        <v>362</v>
+      </c>
+      <c r="CN5" t="s">
         <v>356</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>350</v>
       </c>
       <c r="CS5">
         <v>17</v>
@@ -3819,7 +3840,7 @@
         <v>1.01</v>
       </c>
       <c r="CU5" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CV5">
         <v>1.01</v>
@@ -3986,16 +4007,16 @@
         <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G6">
         <v>4.33</v>
@@ -4022,10 +4043,10 @@
         <v>2.75</v>
       </c>
       <c r="O6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -4034,10 +4055,10 @@
         <v>1.8</v>
       </c>
       <c r="S6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="T6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -4046,10 +4067,10 @@
         <v>1.36</v>
       </c>
       <c r="W6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="X6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AC6">
         <v>7</v>
@@ -4058,10 +4079,10 @@
         <v>1.08</v>
       </c>
       <c r="AE6" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AF6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AG6">
         <v>3.5</v>
@@ -4118,10 +4139,10 @@
         <v>8</v>
       </c>
       <c r="AY6" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AZ6" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="BA6">
         <v>1.09</v>
@@ -4130,10 +4151,10 @@
         <v>6.7</v>
       </c>
       <c r="BC6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="BD6" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="BE6">
         <v>1.33</v>
@@ -4154,10 +4175,10 @@
         <v>2.38</v>
       </c>
       <c r="BK6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="BL6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BM6">
         <v>2.05</v>
@@ -4166,10 +4187,10 @@
         <v>1.75</v>
       </c>
       <c r="BO6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="BP6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="BQ6">
         <v>2.85</v>
@@ -4178,7 +4199,7 @@
         <v>1.4</v>
       </c>
       <c r="BS6" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="BT6">
         <v>1.4</v>
@@ -4202,10 +4223,10 @@
         <v>1.11</v>
       </c>
       <c r="CA6" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="CB6" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="CC6">
         <v>7</v>
@@ -4226,10 +4247,10 @@
         <v>1.02</v>
       </c>
       <c r="CI6" t="s">
+        <v>364</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>358</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>352</v>
       </c>
       <c r="CK6">
         <v>10.5</v>
@@ -4399,16 +4420,16 @@
         <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G7">
         <v>2.25</v>
@@ -4447,10 +4468,10 @@
         <v>1.85</v>
       </c>
       <c r="S7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="T7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -4459,10 +4480,10 @@
         <v>1.36</v>
       </c>
       <c r="W7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y7">
         <v>6.15</v>
@@ -4471,10 +4492,10 @@
         <v>1.1</v>
       </c>
       <c r="AA7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AB7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AC7">
         <v>7</v>
@@ -4555,10 +4576,10 @@
         <v>7.4</v>
       </c>
       <c r="BC7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="BD7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="BE7">
         <v>1.3</v>
@@ -4579,10 +4600,10 @@
         <v>2.44</v>
       </c>
       <c r="BK7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BL7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="BM7">
         <v>2</v>
@@ -4591,10 +4612,10 @@
         <v>1.8</v>
       </c>
       <c r="BO7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="BP7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BQ7">
         <v>2.72</v>
@@ -4603,10 +4624,10 @@
         <v>1.4</v>
       </c>
       <c r="BS7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="BT7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="BU7">
         <v>3.5</v>
@@ -4615,10 +4636,10 @@
         <v>1.29</v>
       </c>
       <c r="BW7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BX7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BY7">
         <v>5.7</v>
@@ -4627,10 +4648,10 @@
         <v>1.09</v>
       </c>
       <c r="CA7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="CB7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="CC7">
         <v>6.5</v>
@@ -4651,10 +4672,10 @@
         <v>1.02</v>
       </c>
       <c r="CI7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="CJ7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CK7">
         <v>10</v>
@@ -4830,16 +4851,16 @@
         <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G8">
         <v>2.05</v>
@@ -4866,10 +4887,10 @@
         <v>2.63</v>
       </c>
       <c r="O8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q8">
         <v>2.08</v>
@@ -4878,10 +4899,10 @@
         <v>1.73</v>
       </c>
       <c r="S8" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="T8" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="U8">
         <v>3.25</v>
@@ -4890,10 +4911,10 @@
         <v>1.33</v>
       </c>
       <c r="W8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="X8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Y8">
         <v>6.35</v>
@@ -4902,10 +4923,10 @@
         <v>1.1</v>
       </c>
       <c r="AA8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AB8" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AC8">
         <v>7.5</v>
@@ -4914,10 +4935,10 @@
         <v>1.07</v>
       </c>
       <c r="AE8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AG8">
         <v>1.45</v>
@@ -4974,10 +4995,10 @@
         <v>8</v>
       </c>
       <c r="AY8" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AZ8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="BA8">
         <v>1.05</v>
@@ -4986,10 +5007,10 @@
         <v>7.2</v>
       </c>
       <c r="BC8" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="BD8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="BE8">
         <v>1.36</v>
@@ -4998,10 +5019,10 @@
         <v>3</v>
       </c>
       <c r="BG8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BH8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BI8">
         <v>1.52</v>
@@ -5010,10 +5031,10 @@
         <v>2.36</v>
       </c>
       <c r="BK8" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="BL8" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="BM8">
         <v>2.1</v>
@@ -5022,10 +5043,10 @@
         <v>1.7</v>
       </c>
       <c r="BO8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="BP8" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="BQ8">
         <v>2.8</v>
@@ -5034,10 +5055,10 @@
         <v>1.38</v>
       </c>
       <c r="BS8" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="BT8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BU8">
         <v>3.75</v>
@@ -5046,10 +5067,10 @@
         <v>1.25</v>
       </c>
       <c r="BW8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="BX8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="BY8">
         <v>5.95</v>
@@ -5058,10 +5079,10 @@
         <v>1.08</v>
       </c>
       <c r="CA8" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="CB8" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="CC8">
         <v>7</v>
@@ -5070,10 +5091,10 @@
         <v>1.08</v>
       </c>
       <c r="CE8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="CF8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CG8">
         <v>13</v>
@@ -5094,7 +5115,7 @@
         <v>1.02</v>
       </c>
       <c r="CM8" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="CN8">
         <v>1.02</v>
@@ -5106,10 +5127,10 @@
         <v>1.01</v>
       </c>
       <c r="CU8" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="CV8" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="DI8">
         <v>1.18</v>
@@ -5255,16 +5276,16 @@
         <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G9">
         <v>2.2</v>
@@ -5303,10 +5324,10 @@
         <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="U9">
         <v>2.75</v>
@@ -5327,10 +5348,10 @@
         <v>1.13</v>
       </c>
       <c r="AA9" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AB9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AC9">
         <v>6.5</v>
@@ -5399,10 +5420,10 @@
         <v>9</v>
       </c>
       <c r="AY9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AZ9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="BA9">
         <v>1.03</v>
@@ -5411,10 +5432,10 @@
         <v>8.4</v>
       </c>
       <c r="BC9" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BD9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="BE9">
         <v>1.25</v>
@@ -5423,10 +5444,10 @@
         <v>3.75</v>
       </c>
       <c r="BG9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BH9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="BI9">
         <v>1.39</v>
@@ -5435,10 +5456,10 @@
         <v>2.76</v>
       </c>
       <c r="BK9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="BL9" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="BM9">
         <v>1.83</v>
@@ -5447,10 +5468,10 @@
         <v>1.98</v>
       </c>
       <c r="BO9" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BP9" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BQ9">
         <v>2.41</v>
@@ -5459,10 +5480,10 @@
         <v>1.5</v>
       </c>
       <c r="BS9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BT9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="BU9">
         <v>3</v>
@@ -5471,10 +5492,10 @@
         <v>1.36</v>
       </c>
       <c r="BW9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BX9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BY9">
         <v>4.9</v>
@@ -5483,10 +5504,10 @@
         <v>1.13</v>
       </c>
       <c r="CA9" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="CB9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CC9">
         <v>5.5</v>
@@ -5507,10 +5528,10 @@
         <v>1.01</v>
       </c>
       <c r="CI9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CJ9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CK9">
         <v>9</v>
@@ -5686,16 +5707,16 @@
         <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G10">
         <v>5.5</v>
@@ -5830,10 +5851,10 @@
         <v>8.5</v>
       </c>
       <c r="AY10" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AZ10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="BA10">
         <v>1.04</v>
@@ -5842,10 +5863,10 @@
         <v>7.8</v>
       </c>
       <c r="BC10" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="BD10" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="BE10">
         <v>1.3</v>
@@ -5866,10 +5887,10 @@
         <v>2.52</v>
       </c>
       <c r="BK10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BL10" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="BM10">
         <v>1.98</v>
@@ -5878,10 +5899,10 @@
         <v>1.83</v>
       </c>
       <c r="BO10" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BP10" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BQ10">
         <v>2.62</v>
@@ -5890,10 +5911,10 @@
         <v>1.43</v>
       </c>
       <c r="BS10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BT10" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="BU10">
         <v>3.4</v>
@@ -5914,10 +5935,10 @@
         <v>1.1</v>
       </c>
       <c r="CA10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="CB10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="CC10">
         <v>6.5</v>
@@ -5938,7 +5959,7 @@
         <v>1.02</v>
       </c>
       <c r="CI10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="CJ10">
         <v>1.02</v>
@@ -6117,16 +6138,16 @@
         <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6189,10 +6210,10 @@
         <v>1.08</v>
       </c>
       <c r="AE11" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AF11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AG11">
         <v>1.45</v>
@@ -6249,10 +6270,10 @@
         <v>8</v>
       </c>
       <c r="AY11" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AZ11" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="BA11">
         <v>1.09</v>
@@ -6264,7 +6285,7 @@
         <v>1.09</v>
       </c>
       <c r="BD11" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="BE11">
         <v>1.33</v>
@@ -6285,10 +6306,10 @@
         <v>2.32</v>
       </c>
       <c r="BK11" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="BL11" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="BM11">
         <v>2.08</v>
@@ -6297,10 +6318,10 @@
         <v>1.73</v>
       </c>
       <c r="BO11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="BP11" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BQ11">
         <v>2.9</v>
@@ -6309,10 +6330,10 @@
         <v>1.37</v>
       </c>
       <c r="BS11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="BT11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BU11">
         <v>3.75</v>
@@ -6333,10 +6354,10 @@
         <v>1.11</v>
       </c>
       <c r="CA11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="CB11" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="CC11">
         <v>7</v>
@@ -6518,16 +6539,16 @@
         <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G12">
         <v>1.67</v>
@@ -6554,10 +6575,10 @@
         <v>3.25</v>
       </c>
       <c r="O12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q12">
         <v>1.75</v>
@@ -6566,10 +6587,10 @@
         <v>2.05</v>
       </c>
       <c r="S12" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="T12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="U12">
         <v>2.63</v>
@@ -6578,10 +6599,10 @@
         <v>1.44</v>
       </c>
       <c r="W12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="X12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Y12">
         <v>5.15</v>
@@ -6590,10 +6611,10 @@
         <v>1.14</v>
       </c>
       <c r="AA12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AB12" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AC12">
         <v>6</v>
@@ -6602,10 +6623,10 @@
         <v>1.11</v>
       </c>
       <c r="AE12" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AF12" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AG12">
         <v>1.22</v>
@@ -6662,10 +6683,10 @@
         <v>10</v>
       </c>
       <c r="AY12" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AZ12" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="BA12">
         <v>1.02</v>
@@ -6674,10 +6695,10 @@
         <v>9.1</v>
       </c>
       <c r="BC12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="BD12" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="BE12">
         <v>1.22</v>
@@ -6686,10 +6707,10 @@
         <v>4</v>
       </c>
       <c r="BG12" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="BH12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="BI12">
         <v>1.35</v>
@@ -6698,10 +6719,10 @@
         <v>2.93</v>
       </c>
       <c r="BK12" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BL12" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="BM12">
         <v>1.73</v>
@@ -6710,10 +6731,10 @@
         <v>2.08</v>
       </c>
       <c r="BO12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BP12" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="BQ12">
         <v>2.03</v>
@@ -6734,10 +6755,10 @@
         <v>1.4</v>
       </c>
       <c r="BW12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BX12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BY12">
         <v>4.5</v>
@@ -6746,10 +6767,10 @@
         <v>1.15</v>
       </c>
       <c r="CA12" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="CB12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CC12">
         <v>4.5</v>
@@ -6758,10 +6779,10 @@
         <v>1.17</v>
       </c>
       <c r="CE12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="CF12" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="CG12">
         <v>9</v>
@@ -6770,10 +6791,10 @@
         <v>1.02</v>
       </c>
       <c r="CI12" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="CJ12" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="CK12">
         <v>8.5</v>
@@ -6782,10 +6803,10 @@
         <v>1.05</v>
       </c>
       <c r="CM12" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="CN12" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="CS12">
         <v>12</v>
@@ -6794,7 +6815,7 @@
         <v>1.02</v>
       </c>
       <c r="CU12" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="CV12">
         <v>1.02</v>
@@ -6806,10 +6827,10 @@
         <v>21</v>
       </c>
       <c r="DC12" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="DD12" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="DI12">
         <v>1.02</v>
@@ -6937,16 +6958,16 @@
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G13">
         <v>2.5</v>
@@ -6973,10 +6994,10 @@
         <v>2.63</v>
       </c>
       <c r="O13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>2.05</v>
@@ -6985,10 +7006,10 @@
         <v>1.75</v>
       </c>
       <c r="S13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="T13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="U13">
         <v>3.25</v>
@@ -6997,10 +7018,10 @@
         <v>1.33</v>
       </c>
       <c r="W13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y13">
         <v>6</v>
@@ -7009,10 +7030,10 @@
         <v>1.11</v>
       </c>
       <c r="AA13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AB13" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AC13">
         <v>7.5</v>
@@ -7021,10 +7042,10 @@
         <v>1.07</v>
       </c>
       <c r="AE13" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AG13">
         <v>1.8</v>
@@ -7081,10 +7102,10 @@
         <v>8</v>
       </c>
       <c r="AY13" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AZ13" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="BA13">
         <v>1.04</v>
@@ -7093,10 +7114,10 @@
         <v>7.6</v>
       </c>
       <c r="BC13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BD13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="BE13">
         <v>1.36</v>
@@ -7105,10 +7126,10 @@
         <v>3</v>
       </c>
       <c r="BG13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BH13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="BI13">
         <v>1.47</v>
@@ -7117,10 +7138,10 @@
         <v>2.49</v>
       </c>
       <c r="BK13" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="BL13" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="BM13">
         <v>2.1</v>
@@ -7129,10 +7150,10 @@
         <v>1.7</v>
       </c>
       <c r="BO13" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BP13" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="BQ13">
         <v>2.65</v>
@@ -7141,10 +7162,10 @@
         <v>1.42</v>
       </c>
       <c r="BS13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BT13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BU13">
         <v>3.75</v>
@@ -7153,10 +7174,10 @@
         <v>1.25</v>
       </c>
       <c r="BW13" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BX13" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BY13">
         <v>5.55</v>
@@ -7165,10 +7186,10 @@
         <v>1.1</v>
       </c>
       <c r="CA13" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="CB13" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="CC13">
         <v>7</v>
@@ -7177,10 +7198,10 @@
         <v>1.08</v>
       </c>
       <c r="CE13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="CF13" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="CG13">
         <v>12</v>
@@ -7189,10 +7210,10 @@
         <v>1.02</v>
       </c>
       <c r="CI13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CJ13" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="CK13">
         <v>11</v>
@@ -7201,10 +7222,10 @@
         <v>1.02</v>
       </c>
       <c r="CM13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CN13" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="CS13">
         <v>17</v>
@@ -7213,7 +7234,7 @@
         <v>1.01</v>
       </c>
       <c r="CU13" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CV13">
         <v>1.01</v>
@@ -7380,16 +7401,16 @@
         <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -7416,10 +7437,10 @@
         <v>2.38</v>
       </c>
       <c r="O14" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>2.25</v>
@@ -7428,10 +7449,10 @@
         <v>1.6</v>
       </c>
       <c r="S14" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="T14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="U14">
         <v>3.5</v>
@@ -7440,10 +7461,10 @@
         <v>1.29</v>
       </c>
       <c r="W14" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="X14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Y14">
         <v>8.1</v>
@@ -7452,7 +7473,7 @@
         <v>1.06</v>
       </c>
       <c r="AA14" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AB14">
         <v>1.06</v>
@@ -7464,10 +7485,10 @@
         <v>1.05</v>
       </c>
       <c r="AE14" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF14" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AG14">
         <v>2.2</v>
@@ -7524,10 +7545,10 @@
         <v>7</v>
       </c>
       <c r="AY14" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AZ14" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="BA14">
         <v>1.1</v>
@@ -7536,10 +7557,10 @@
         <v>5.55</v>
       </c>
       <c r="BC14" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="BD14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="BE14">
         <v>1.44</v>
@@ -7548,10 +7569,10 @@
         <v>2.63</v>
       </c>
       <c r="BG14" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BH14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BI14">
         <v>1.78</v>
@@ -7560,10 +7581,10 @@
         <v>2.03</v>
       </c>
       <c r="BK14" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BL14" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="BM14">
         <v>2.35</v>
@@ -7572,10 +7593,10 @@
         <v>1.57</v>
       </c>
       <c r="BO14" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="BP14" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="BQ14">
         <v>3.64</v>
@@ -7584,10 +7605,10 @@
         <v>1.24</v>
       </c>
       <c r="BS14" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="BT14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BU14">
         <v>4.33</v>
@@ -7608,10 +7629,10 @@
         <v>1.03</v>
       </c>
       <c r="CA14" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="CB14" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="CC14">
         <v>8</v>
@@ -7787,16 +7808,16 @@
         <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G15">
         <v>3.6</v>
@@ -7823,10 +7844,10 @@
         <v>2.75</v>
       </c>
       <c r="O15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>1.9</v>
@@ -7835,10 +7856,10 @@
         <v>1.9</v>
       </c>
       <c r="S15" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="T15" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="U15">
         <v>2.75</v>
@@ -7847,10 +7868,10 @@
         <v>1.4</v>
       </c>
       <c r="W15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="X15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y15">
         <v>5.75</v>
@@ -7859,7 +7880,7 @@
         <v>1.12</v>
       </c>
       <c r="AA15" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AB15">
         <v>1.12</v>
@@ -7871,10 +7892,10 @@
         <v>1.08</v>
       </c>
       <c r="AE15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AF15" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AG15">
         <v>3</v>
@@ -7931,10 +7952,10 @@
         <v>8.5</v>
       </c>
       <c r="AY15" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AZ15" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="BA15">
         <v>1.03</v>
@@ -7943,7 +7964,7 @@
         <v>8</v>
       </c>
       <c r="BC15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BD15">
         <v>8</v>
@@ -7955,10 +7976,10 @@
         <v>3.5</v>
       </c>
       <c r="BG15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BH15" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="BI15">
         <v>1.43</v>
@@ -7967,10 +7988,10 @@
         <v>2.62</v>
       </c>
       <c r="BK15" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="BL15" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="BM15">
         <v>1.93</v>
@@ -7979,10 +8000,10 @@
         <v>1.88</v>
       </c>
       <c r="BO15" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BP15" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BQ15">
         <v>2.55</v>
@@ -7991,10 +8012,10 @@
         <v>1.45</v>
       </c>
       <c r="BS15" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="BT15" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="BU15">
         <v>3.25</v>
@@ -8003,10 +8024,10 @@
         <v>1.33</v>
       </c>
       <c r="BW15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BX15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BY15">
         <v>5.2</v>
@@ -8015,10 +8036,10 @@
         <v>1.11</v>
       </c>
       <c r="CA15" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="CB15" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="CC15">
         <v>6</v>
@@ -8027,10 +8048,10 @@
         <v>1.11</v>
       </c>
       <c r="CE15" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="CF15" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="CK15">
         <v>9</v>
@@ -8039,10 +8060,10 @@
         <v>1.04</v>
       </c>
       <c r="CM15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="CN15" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="CS15">
         <v>15</v>
@@ -8051,7 +8072,7 @@
         <v>1.01</v>
       </c>
       <c r="CU15" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="CV15">
         <v>1.01</v>
@@ -8218,16 +8239,16 @@
         <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G16">
         <v>2.3</v>
@@ -8254,10 +8275,10 @@
         <v>2.75</v>
       </c>
       <c r="O16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P16" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q16">
         <v>1.98</v>
@@ -8266,10 +8287,10 @@
         <v>1.83</v>
       </c>
       <c r="S16" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="T16" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -8278,10 +8299,10 @@
         <v>1.36</v>
       </c>
       <c r="W16" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="X16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Y16">
         <v>6.55</v>
@@ -8290,10 +8311,10 @@
         <v>1.09</v>
       </c>
       <c r="AA16" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AB16" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AC16">
         <v>7</v>
@@ -8302,10 +8323,10 @@
         <v>1.08</v>
       </c>
       <c r="AE16" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AF16" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AG16">
         <v>1.7</v>
@@ -8362,10 +8383,10 @@
         <v>8</v>
       </c>
       <c r="AY16" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AZ16" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="BA16">
         <v>1.05</v>
@@ -8374,10 +8395,10 @@
         <v>6.95</v>
       </c>
       <c r="BC16" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="BD16" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="BE16">
         <v>1.33</v>
@@ -8386,10 +8407,10 @@
         <v>3.25</v>
       </c>
       <c r="BG16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BH16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="BI16">
         <v>1.53</v>
@@ -8398,10 +8419,10 @@
         <v>2.33</v>
       </c>
       <c r="BK16" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BL16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="BM16">
         <v>2.03</v>
@@ -8410,10 +8431,10 @@
         <v>1.78</v>
       </c>
       <c r="BO16" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="BP16" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="BQ16">
         <v>2.89</v>
@@ -8422,10 +8443,10 @@
         <v>1.36</v>
       </c>
       <c r="BS16" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BT16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BU16">
         <v>3.5</v>
@@ -8434,10 +8455,10 @@
         <v>1.29</v>
       </c>
       <c r="BW16" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="BX16" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BY16">
         <v>6.15</v>
@@ -8446,10 +8467,10 @@
         <v>1.08</v>
       </c>
       <c r="CA16" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="CB16" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="CC16">
         <v>6.5</v>
@@ -8458,10 +8479,10 @@
         <v>1.1</v>
       </c>
       <c r="CE16" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="CF16" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="CG16">
         <v>11.5</v>
@@ -8470,10 +8491,10 @@
         <v>1.02</v>
       </c>
       <c r="CI16" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="CJ16" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="CK16">
         <v>10</v>
@@ -8482,10 +8503,10 @@
         <v>1.03</v>
       </c>
       <c r="CM16" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="CN16" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="CS16">
         <v>17</v>
@@ -8649,16 +8670,16 @@
         <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G17">
         <v>3.75</v>
@@ -8697,10 +8718,10 @@
         <v>1.6</v>
       </c>
       <c r="S17" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="T17" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="U17">
         <v>3.5</v>
@@ -8721,7 +8742,7 @@
         <v>1.06</v>
       </c>
       <c r="AA17" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AB17">
         <v>1.06</v>
@@ -8733,10 +8754,10 @@
         <v>1.05</v>
       </c>
       <c r="AE17" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF17" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AG17">
         <v>3.2</v>
@@ -8793,10 +8814,10 @@
         <v>6.5</v>
       </c>
       <c r="AY17" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AZ17" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="BA17">
         <v>1.09</v>
@@ -8805,7 +8826,7 @@
         <v>5.6</v>
       </c>
       <c r="BC17" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="BD17">
         <v>5.6</v>
@@ -8817,10 +8838,10 @@
         <v>2.63</v>
       </c>
       <c r="BG17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BH17" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BI17">
         <v>1.8</v>
@@ -8829,10 +8850,10 @@
         <v>2</v>
       </c>
       <c r="BK17" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BL17" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="BM17">
         <v>2.4</v>
@@ -8853,10 +8874,10 @@
         <v>1.24</v>
       </c>
       <c r="BS17" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="BT17" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BU17">
         <v>4.33</v>
@@ -8880,7 +8901,7 @@
         <v>7.9</v>
       </c>
       <c r="CB17" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="CC17">
         <v>8.5</v>
@@ -8889,10 +8910,10 @@
         <v>1.05</v>
       </c>
       <c r="CE17" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="CF17" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CK17">
         <v>13</v>
@@ -8901,10 +8922,10 @@
         <v>1.01</v>
       </c>
       <c r="CM17" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="CN17" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="CS17">
         <v>21</v>
@@ -9056,16 +9077,16 @@
         <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G18">
         <v>1.91</v>
@@ -9104,10 +9125,10 @@
         <v>2.03</v>
       </c>
       <c r="S18" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="T18" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="U18">
         <v>2.63</v>
@@ -9128,10 +9149,10 @@
         <v>1.14</v>
       </c>
       <c r="AA18" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AB18" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AC18">
         <v>6</v>
@@ -9140,10 +9161,10 @@
         <v>1.11</v>
       </c>
       <c r="AE18" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AF18" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG18">
         <v>1.44</v>
@@ -9200,10 +9221,10 @@
         <v>10</v>
       </c>
       <c r="AY18" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AZ18" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="BA18">
         <v>1.02</v>
@@ -9212,10 +9233,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BC18" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="BD18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="BE18">
         <v>1.25</v>
@@ -9236,10 +9257,10 @@
         <v>2.84</v>
       </c>
       <c r="BK18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="BL18" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="BM18">
         <v>1.8</v>
@@ -9248,10 +9269,10 @@
         <v>2</v>
       </c>
       <c r="BO18" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BP18" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="BQ18">
         <v>2.34</v>
@@ -9260,10 +9281,10 @@
         <v>1.53</v>
       </c>
       <c r="BS18" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="BT18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="BU18">
         <v>3</v>
@@ -9284,10 +9305,10 @@
         <v>1.14</v>
       </c>
       <c r="CA18" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="CB18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="CC18">
         <v>5</v>
@@ -9296,10 +9317,10 @@
         <v>1.14</v>
       </c>
       <c r="CE18" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="CF18" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="CG18">
         <v>9.4</v>
@@ -9308,10 +9329,10 @@
         <v>1.01</v>
       </c>
       <c r="CI18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="CJ18" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="CK18">
         <v>8.5</v>
@@ -9320,10 +9341,10 @@
         <v>1.05</v>
       </c>
       <c r="CM18" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CN18" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="CS18">
         <v>13</v>
@@ -9332,7 +9353,7 @@
         <v>1.01</v>
       </c>
       <c r="CU18" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CV18">
         <v>1.01</v>
@@ -9487,16 +9508,16 @@
         <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G19">
         <v>2.38</v>
@@ -9523,10 +9544,10 @@
         <v>2.43</v>
       </c>
       <c r="O19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P19" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q19">
         <v>2.27</v>
@@ -9535,10 +9556,10 @@
         <v>1.59</v>
       </c>
       <c r="S19" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="T19" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="U19">
         <v>3.44</v>
@@ -9547,10 +9568,10 @@
         <v>1.29</v>
       </c>
       <c r="W19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="X19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Y19">
         <v>8.1</v>
@@ -9559,7 +9580,7 @@
         <v>1.06</v>
       </c>
       <c r="AA19" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AB19">
         <v>1.06</v>
@@ -9571,10 +9592,10 @@
         <v>1.04</v>
       </c>
       <c r="AE19" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF19" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AG19">
         <v>1.7</v>
@@ -9631,10 +9652,10 @@
         <v>6.85</v>
       </c>
       <c r="AY19" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AZ19" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="BA19">
         <v>1.1</v>
@@ -9643,10 +9664,10 @@
         <v>5.55</v>
       </c>
       <c r="BC19" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="BD19" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="BE19">
         <v>1.43</v>
@@ -9655,10 +9676,10 @@
         <v>2.54</v>
       </c>
       <c r="BG19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BH19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="BI19">
         <v>1.78</v>
@@ -9679,10 +9700,10 @@
         <v>1.57</v>
       </c>
       <c r="BO19" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="BP19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="BQ19">
         <v>3.64</v>
@@ -9691,10 +9712,10 @@
         <v>1.24</v>
       </c>
       <c r="BS19" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="BT19" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="BU19">
         <v>4.4</v>
@@ -9703,10 +9724,10 @@
         <v>1.16</v>
       </c>
       <c r="BW19" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="BX19" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="BY19">
         <v>8</v>
@@ -9715,10 +9736,10 @@
         <v>1.03</v>
       </c>
       <c r="CA19" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="CB19" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="CC19">
         <v>8.699999999999999</v>
@@ -9727,10 +9748,10 @@
         <v>1.02</v>
       </c>
       <c r="CE19" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="CF19" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CK19">
         <v>19</v>
@@ -9739,7 +9760,7 @@
         <v>1.02</v>
       </c>
       <c r="CM19" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CN19">
         <v>1.02</v>
@@ -9888,16 +9909,16 @@
         <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <v>2.3</v>
@@ -9924,10 +9945,10 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P20" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q20">
         <v>1.83</v>
@@ -9936,10 +9957,10 @@
         <v>1.98</v>
       </c>
       <c r="S20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="T20" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="U20">
         <v>2.75</v>
@@ -9948,10 +9969,10 @@
         <v>1.4</v>
       </c>
       <c r="W20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="X20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Y20">
         <v>5.6</v>
@@ -9960,10 +9981,10 @@
         <v>1.12</v>
       </c>
       <c r="AA20" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AB20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AC20">
         <v>6.5</v>
@@ -9972,10 +9993,10 @@
         <v>1.1</v>
       </c>
       <c r="AE20" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AF20" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AG20">
         <v>1.75</v>
@@ -10032,10 +10053,10 @@
         <v>8.5</v>
       </c>
       <c r="AY20" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AZ20" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="BA20">
         <v>1.03</v>
@@ -10044,10 +10065,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BC20" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="BD20" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="BE20">
         <v>1.25</v>
@@ -10056,10 +10077,10 @@
         <v>3.75</v>
       </c>
       <c r="BG20" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="BH20" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="BI20">
         <v>1.41</v>
@@ -10068,10 +10089,10 @@
         <v>2.69</v>
       </c>
       <c r="BK20" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="BL20" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="BM20">
         <v>1.88</v>
@@ -10080,10 +10101,10 @@
         <v>1.93</v>
       </c>
       <c r="BO20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="BP20" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="BQ20">
         <v>2.46</v>
@@ -10092,10 +10113,10 @@
         <v>1.48</v>
       </c>
       <c r="BS20" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="BT20" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="BU20">
         <v>3.25</v>
@@ -10104,10 +10125,10 @@
         <v>1.33</v>
       </c>
       <c r="BW20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="BX20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BY20">
         <v>5.05</v>
@@ -10116,10 +10137,10 @@
         <v>1.12</v>
       </c>
       <c r="CA20" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="CB20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CC20">
         <v>5.5</v>
@@ -10128,10 +10149,10 @@
         <v>1.13</v>
       </c>
       <c r="CE20" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="CF20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CG20">
         <v>10.2</v>
@@ -10140,10 +10161,10 @@
         <v>1.01</v>
       </c>
       <c r="CI20" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="CJ20" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="CK20">
         <v>9</v>
@@ -10152,10 +10173,10 @@
         <v>1.04</v>
       </c>
       <c r="CM20" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="CN20" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CS20">
         <v>15</v>
@@ -10164,10 +10185,10 @@
         <v>1.01</v>
       </c>
       <c r="CU20" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="CV20" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="DA20">
         <v>21</v>
@@ -10325,16 +10346,16 @@
         <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G21">
         <v>2.18</v>
@@ -10361,10 +10382,10 @@
         <v>2.78</v>
       </c>
       <c r="O21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q21">
         <v>1.93</v>
@@ -10373,10 +10394,10 @@
         <v>1.82</v>
       </c>
       <c r="S21" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="T21" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="U21">
         <v>2.94</v>
@@ -10385,10 +10406,10 @@
         <v>1.37</v>
       </c>
       <c r="W21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y21">
         <v>6.25</v>
@@ -10397,10 +10418,10 @@
         <v>1.1</v>
       </c>
       <c r="AA21" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AB21" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AC21">
         <v>7.5</v>
@@ -10409,10 +10430,10 @@
         <v>1.07</v>
       </c>
       <c r="AE21" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF21" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AG21">
         <v>1.62</v>
@@ -10472,7 +10493,7 @@
         <v>1.02</v>
       </c>
       <c r="AZ21" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="BA21">
         <v>1.05</v>
@@ -10481,10 +10502,10 @@
         <v>7.3</v>
       </c>
       <c r="BC21" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="BD21" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="BE21">
         <v>1.3</v>
@@ -10493,10 +10514,10 @@
         <v>3.08</v>
       </c>
       <c r="BG21" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BH21" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="BI21">
         <v>1.5</v>
@@ -10505,10 +10526,10 @@
         <v>2.41</v>
       </c>
       <c r="BK21" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="BL21" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="BM21">
         <v>2.02</v>
@@ -10517,10 +10538,10 @@
         <v>1.79</v>
       </c>
       <c r="BO21" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BP21" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BQ21">
         <v>2.76</v>
@@ -10529,10 +10550,10 @@
         <v>1.39</v>
       </c>
       <c r="BS21" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="BT21" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="BU21">
         <v>3.42</v>
@@ -10541,10 +10562,10 @@
         <v>1.25</v>
       </c>
       <c r="BW21" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="BX21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BY21">
         <v>5.8</v>
@@ -10553,10 +10574,10 @@
         <v>1.09</v>
       </c>
       <c r="CA21" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="CB21" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="CC21">
         <v>6.5</v>
@@ -10565,10 +10586,10 @@
         <v>1.06</v>
       </c>
       <c r="CE21" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="CF21" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="CG21">
         <v>9.300000000000001</v>
@@ -10577,10 +10598,10 @@
         <v>1.04</v>
       </c>
       <c r="CI21" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="CJ21" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="CK21">
         <v>11.5</v>
@@ -10589,10 +10610,10 @@
         <v>1.02</v>
       </c>
       <c r="CM21" t="s">
+        <v>362</v>
+      </c>
+      <c r="CN21" t="s">
         <v>356</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>350</v>
       </c>
       <c r="CS21">
         <v>17</v>
@@ -10744,16 +10765,16 @@
         <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G22">
         <v>3.2</v>
@@ -10792,10 +10813,10 @@
         <v>1.7</v>
       </c>
       <c r="S22" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="T22" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="U22">
         <v>3.25</v>
@@ -10816,10 +10837,10 @@
         <v>1.07</v>
       </c>
       <c r="AA22" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AB22" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AC22">
         <v>8</v>
@@ -10828,10 +10849,10 @@
         <v>1.06</v>
       </c>
       <c r="AE22" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AF22" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AG22">
         <v>2.45</v>
@@ -10888,10 +10909,10 @@
         <v>8.5</v>
       </c>
       <c r="AY22" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AZ22" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="BA22">
         <v>1.08</v>
@@ -10900,10 +10921,10 @@
         <v>6.05</v>
       </c>
       <c r="BC22" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="BD22" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="BE22">
         <v>1.36</v>
@@ -10924,10 +10945,10 @@
         <v>2.08</v>
       </c>
       <c r="BK22" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="BL22" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="BM22">
         <v>2.15</v>
@@ -10936,10 +10957,10 @@
         <v>1.67</v>
       </c>
       <c r="BO22" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="BP22" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="BQ22">
         <v>3.34</v>
@@ -10948,10 +10969,10 @@
         <v>1.28</v>
       </c>
       <c r="BS22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="BT22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BU22">
         <v>4</v>
@@ -10960,10 +10981,10 @@
         <v>1.22</v>
       </c>
       <c r="BW22" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="BX22" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BY22">
         <v>7.2</v>
@@ -10972,10 +10993,10 @@
         <v>1.05</v>
       </c>
       <c r="CA22" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="CB22" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="CC22">
         <v>7.5</v>
@@ -10984,10 +11005,10 @@
         <v>1.07</v>
       </c>
       <c r="CE22" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="CF22" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="CG22">
         <v>13.5</v>
@@ -10996,7 +11017,7 @@
         <v>1.01</v>
       </c>
       <c r="CI22" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="CJ22">
         <v>1.01</v>
@@ -11169,16 +11190,16 @@
         <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G23">
         <v>1.95</v>
@@ -11205,10 +11226,10 @@
         <v>3.4</v>
       </c>
       <c r="O23" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q23">
         <v>1.7</v>
@@ -11217,10 +11238,10 @@
         <v>2.1</v>
       </c>
       <c r="S23" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="T23" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="U23">
         <v>2.5</v>
@@ -11229,10 +11250,10 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="X23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y23">
         <v>4.7</v>
@@ -11241,10 +11262,10 @@
         <v>1.17</v>
       </c>
       <c r="AA23" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AB23" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AC23">
         <v>5.5</v>
@@ -11253,10 +11274,10 @@
         <v>1.13</v>
       </c>
       <c r="AE23" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AF23" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG23">
         <v>1.45</v>
@@ -11313,10 +11334,10 @@
         <v>10</v>
       </c>
       <c r="AY23" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AZ23" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="BA23">
         <v>1.01</v>
@@ -11325,10 +11346,10 @@
         <v>9.9</v>
       </c>
       <c r="BC23" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="BD23" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="BE23">
         <v>1.2</v>
@@ -11337,10 +11358,10 @@
         <v>4.33</v>
       </c>
       <c r="BG23" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BH23" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="BI23">
         <v>1.3</v>
@@ -11349,10 +11370,10 @@
         <v>3.2</v>
       </c>
       <c r="BK23" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="BL23" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="BM23">
         <v>1.67</v>
@@ -11361,10 +11382,10 @@
         <v>2.15</v>
       </c>
       <c r="BO23" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BP23" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="BQ23">
         <v>2.09</v>
@@ -11373,10 +11394,10 @@
         <v>1.66</v>
       </c>
       <c r="BS23" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BT23" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="BU23">
         <v>2.63</v>
@@ -11385,10 +11406,10 @@
         <v>1.44</v>
       </c>
       <c r="BW23" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="BX23" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BY23">
         <v>3.98</v>
@@ -11397,10 +11418,10 @@
         <v>1.19</v>
       </c>
       <c r="CA23" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="CB23" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="CC23">
         <v>4.5</v>
@@ -11409,10 +11430,10 @@
         <v>1.17</v>
       </c>
       <c r="CE23" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="CF23" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="CG23">
         <v>8</v>
@@ -11421,10 +11442,10 @@
         <v>1.03</v>
       </c>
       <c r="CI23" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CJ23" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CK23">
         <v>8</v>
@@ -11433,10 +11454,10 @@
         <v>1.06</v>
       </c>
       <c r="CM23" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="CN23" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="CS23">
         <v>12</v>
@@ -11445,10 +11466,10 @@
         <v>1.02</v>
       </c>
       <c r="CU23" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CV23" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="DA23">
         <v>17</v>
@@ -11457,10 +11478,10 @@
         <v>1.01</v>
       </c>
       <c r="DC23" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="DD23" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="DI23">
         <v>1.21</v>
@@ -11600,16 +11621,16 @@
         <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G24">
         <v>3.75</v>
@@ -11636,10 +11657,10 @@
         <v>2.63</v>
       </c>
       <c r="O24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P24" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q24">
         <v>2.13</v>
@@ -11648,10 +11669,10 @@
         <v>1.67</v>
       </c>
       <c r="S24" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="T24" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="U24">
         <v>3.4</v>
@@ -11660,10 +11681,10 @@
         <v>1.3</v>
       </c>
       <c r="W24" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="X24" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y24">
         <v>7.4</v>
@@ -11672,10 +11693,10 @@
         <v>1.07</v>
       </c>
       <c r="AA24" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AB24" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AC24">
         <v>8</v>
@@ -11684,10 +11705,10 @@
         <v>1.06</v>
       </c>
       <c r="AE24" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF24" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AG24">
         <v>3</v>
@@ -11744,10 +11765,10 @@
         <v>7</v>
       </c>
       <c r="AY24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AZ24" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="BA24">
         <v>1.08</v>
@@ -11756,10 +11777,10 @@
         <v>6.15</v>
       </c>
       <c r="BC24" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="BD24" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BE24">
         <v>1.4</v>
@@ -11768,10 +11789,10 @@
         <v>2.75</v>
       </c>
       <c r="BG24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BH24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="BI24">
         <v>1.66</v>
@@ -11780,10 +11801,10 @@
         <v>2.09</v>
       </c>
       <c r="BK24" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="BL24" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="BM24">
         <v>2.25</v>
@@ -11792,10 +11813,10 @@
         <v>1.62</v>
       </c>
       <c r="BO24" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="BP24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BQ24">
         <v>3.3</v>
@@ -11804,10 +11825,10 @@
         <v>1.29</v>
       </c>
       <c r="BS24" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="BT24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BU24">
         <v>4</v>
@@ -11816,10 +11837,10 @@
         <v>1.22</v>
       </c>
       <c r="BW24" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="BX24" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="BY24">
         <v>7.2</v>
@@ -11828,10 +11849,10 @@
         <v>1.05</v>
       </c>
       <c r="CA24" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="CB24" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="CC24">
         <v>7.5</v>
@@ -11840,10 +11861,10 @@
         <v>1.07</v>
       </c>
       <c r="CE24" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="CF24" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CG24">
         <v>13</v>
@@ -12019,16 +12040,16 @@
         <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G25">
         <v>1.44</v>
@@ -12055,10 +12076,10 @@
         <v>3.62</v>
       </c>
       <c r="O25" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P25" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q25">
         <v>1.5</v>
@@ -12067,10 +12088,10 @@
         <v>2.48</v>
       </c>
       <c r="S25" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="T25" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="U25">
         <v>2.23</v>
@@ -12079,10 +12100,10 @@
         <v>1.61</v>
       </c>
       <c r="W25" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="X25" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Y25">
         <v>3.9</v>
@@ -12091,10 +12112,10 @@
         <v>1.23</v>
       </c>
       <c r="AA25" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB25" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AC25">
         <v>4.95</v>
@@ -12103,10 +12124,10 @@
         <v>1.15</v>
       </c>
       <c r="AE25" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AF25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG25">
         <v>1.1</v>
@@ -12145,10 +12166,10 @@
         <v>15.5</v>
       </c>
       <c r="AY25" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AZ25" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="BA25">
         <v>1.02</v>
@@ -12157,10 +12178,10 @@
         <v>11.5</v>
       </c>
       <c r="BC25" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="BD25" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="BE25">
         <v>1.13</v>
@@ -12169,10 +12190,10 @@
         <v>4.75</v>
       </c>
       <c r="BG25" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="BH25" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="BI25">
         <v>1.19</v>
@@ -12181,10 +12202,10 @@
         <v>3.92</v>
       </c>
       <c r="BK25" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="BL25" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="BM25">
         <v>1.53</v>
@@ -12193,10 +12214,10 @@
         <v>2.4</v>
       </c>
       <c r="BO25" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BP25" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="BQ25">
         <v>1.79</v>
@@ -12205,10 +12226,10 @@
         <v>1.92</v>
       </c>
       <c r="BS25" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="BT25" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BU25">
         <v>2.32</v>
@@ -12217,10 +12238,10 @@
         <v>1.61</v>
       </c>
       <c r="BW25" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BX25" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BY25">
         <v>3.14</v>
@@ -12229,10 +12250,10 @@
         <v>1.31</v>
       </c>
       <c r="CA25" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="CB25" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="CC25">
         <v>3.65</v>
@@ -12241,10 +12262,10 @@
         <v>1.22</v>
       </c>
       <c r="CE25" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="CF25" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="CG25">
         <v>6.1</v>
@@ -12253,10 +12274,10 @@
         <v>1.08</v>
       </c>
       <c r="CI25" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="CJ25" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="CK25">
         <v>6.7</v>
@@ -12265,10 +12286,10 @@
         <v>1.06</v>
       </c>
       <c r="CM25" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="CN25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="CS25">
         <v>13</v>
@@ -12277,7 +12298,7 @@
         <v>1.01</v>
       </c>
       <c r="CU25" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CV25">
         <v>1.01</v>
@@ -12408,16 +12429,16 @@
         <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G26">
         <v>2.2</v>
@@ -12444,10 +12465,10 @@
         <v>2.82</v>
       </c>
       <c r="O26" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P26" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q26">
         <v>1.93</v>
@@ -12456,10 +12477,10 @@
         <v>1.88</v>
       </c>
       <c r="S26" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="T26" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="U26">
         <v>2.86</v>
@@ -12468,10 +12489,10 @@
         <v>1.39</v>
       </c>
       <c r="W26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y26">
         <v>5.95</v>
@@ -12480,7 +12501,7 @@
         <v>1.11</v>
       </c>
       <c r="AA26" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AB26">
         <v>1.11</v>
@@ -12492,7 +12513,7 @@
         <v>1.08</v>
       </c>
       <c r="AE26" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AF26">
         <v>1.08</v>
@@ -12552,10 +12573,10 @@
         <v>8.9</v>
       </c>
       <c r="AY26" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AZ26" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="BA26">
         <v>1.04</v>
@@ -12564,10 +12585,10 @@
         <v>7.7</v>
       </c>
       <c r="BC26" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BD26" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BE26">
         <v>1.28</v>
@@ -12579,7 +12600,7 @@
         <v>1.28</v>
       </c>
       <c r="BH26" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="BI26">
         <v>1.46</v>
@@ -12588,10 +12609,10 @@
         <v>2.52</v>
       </c>
       <c r="BK26" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="BL26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BM26">
         <v>1.98</v>
@@ -12600,10 +12621,10 @@
         <v>1.83</v>
       </c>
       <c r="BO26" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BP26" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BQ26">
         <v>2.65</v>
@@ -12612,10 +12633,10 @@
         <v>1.42</v>
       </c>
       <c r="BS26" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="BT26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BU26">
         <v>3.2</v>
@@ -12627,7 +12648,7 @@
         <v>3.2</v>
       </c>
       <c r="BX26" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BY26">
         <v>5.45</v>
@@ -12636,10 +12657,10 @@
         <v>1.1</v>
       </c>
       <c r="CA26" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="CB26" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CC26">
         <v>6.15</v>
@@ -12648,10 +12669,10 @@
         <v>1.08</v>
       </c>
       <c r="CE26" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="CF26" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="CG26">
         <v>11</v>
@@ -12660,10 +12681,10 @@
         <v>1.02</v>
       </c>
       <c r="CI26" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="CJ26" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="CK26">
         <v>14</v>
@@ -12672,10 +12693,10 @@
         <v>1.03</v>
       </c>
       <c r="CM26" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="CN26" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="CS26">
         <v>11</v>
@@ -12684,10 +12705,10 @@
         <v>1.01</v>
       </c>
       <c r="CU26" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="CV26" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="DI26">
         <v>1.23</v>
@@ -12839,16 +12860,16 @@
         <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G27">
         <v>1.33</v>
@@ -12875,7 +12896,7 @@
         <v>4.5</v>
       </c>
       <c r="O27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P27">
         <v>4.5</v>
@@ -12887,10 +12908,10 @@
         <v>3.15</v>
       </c>
       <c r="S27" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T27" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="U27">
         <v>1.92</v>
@@ -12899,10 +12920,10 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="X27" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Y27">
         <v>2.94</v>
@@ -12911,10 +12932,10 @@
         <v>1.37</v>
       </c>
       <c r="AA27" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AB27" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AC27">
         <v>3.8</v>
@@ -12923,10 +12944,10 @@
         <v>1.24</v>
       </c>
       <c r="AE27" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG27">
         <v>1.07</v>
@@ -12968,7 +12989,7 @@
         <v>1.02</v>
       </c>
       <c r="AZ27" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="BA27">
         <v>1.03</v>
@@ -12980,7 +13001,7 @@
         <v>1.03</v>
       </c>
       <c r="BD27" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="BE27">
         <v>1.06</v>
@@ -12989,7 +13010,7 @@
         <v>6.5</v>
       </c>
       <c r="BG27" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="BH27">
         <v>6.5</v>
@@ -13001,10 +13022,10 @@
         <v>5.65</v>
       </c>
       <c r="BK27" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BL27" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="BM27">
         <v>1.3</v>
@@ -13013,10 +13034,10 @@
         <v>3.5</v>
       </c>
       <c r="BO27" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BP27" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="BQ27">
         <v>1.45</v>
@@ -13025,10 +13046,10 @@
         <v>2.55</v>
       </c>
       <c r="BS27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT27" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="BU27">
         <v>1.86</v>
@@ -13037,10 +13058,10 @@
         <v>1.94</v>
       </c>
       <c r="BW27" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="BX27" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="BY27">
         <v>2.27</v>
@@ -13049,10 +13070,10 @@
         <v>1.56</v>
       </c>
       <c r="CA27" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="CB27" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="CC27">
         <v>2.71</v>
@@ -13061,10 +13082,10 @@
         <v>1.38</v>
       </c>
       <c r="CE27" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="CF27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="CG27">
         <v>4.05</v>
@@ -13073,10 +13094,10 @@
         <v>1.18</v>
       </c>
       <c r="CI27" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="CJ27" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="CK27">
         <v>4.6</v>
@@ -13085,10 +13106,10 @@
         <v>1.14</v>
       </c>
       <c r="CM27" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="CN27" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="CO27">
         <v>7.5</v>
@@ -13097,10 +13118,10 @@
         <v>1.04</v>
       </c>
       <c r="CQ27" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="CR27" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="CS27">
         <v>7.9</v>
@@ -13109,10 +13130,10 @@
         <v>1.08</v>
       </c>
       <c r="CU27" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="CV27" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="DA27">
         <v>9.5</v>
@@ -13121,7 +13142,7 @@
         <v>1.03</v>
       </c>
       <c r="DC27" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="DD27">
         <v>1.03</v>
@@ -13252,16 +13273,16 @@
         <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13324,10 +13345,10 @@
         <v>1.08</v>
       </c>
       <c r="AA28" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AB28" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AC28">
         <v>8</v>
@@ -13336,10 +13357,10 @@
         <v>1.06</v>
       </c>
       <c r="AE28" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AF28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AG28">
         <v>2.3</v>
@@ -13396,10 +13417,10 @@
         <v>7.5</v>
       </c>
       <c r="AY28" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AZ28" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="BA28">
         <v>1.07</v>
@@ -13408,10 +13429,10 @@
         <v>6.3</v>
       </c>
       <c r="BC28" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="BD28" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="BE28">
         <v>1.36</v>
@@ -13432,10 +13453,10 @@
         <v>2.14</v>
       </c>
       <c r="BK28" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="BL28" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="BM28">
         <v>2.15</v>
@@ -13444,10 +13465,10 @@
         <v>1.67</v>
       </c>
       <c r="BO28" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="BP28" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="BQ28">
         <v>3.2</v>
@@ -13456,10 +13477,10 @@
         <v>1.3</v>
       </c>
       <c r="BS28" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="BT28" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="BU28">
         <v>4</v>
@@ -13468,10 +13489,10 @@
         <v>1.22</v>
       </c>
       <c r="BW28" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="BX28" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BY28">
         <v>6.9</v>
@@ -13480,10 +13501,10 @@
         <v>1.05</v>
       </c>
       <c r="CA28" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="CB28" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="CC28">
         <v>7.5</v>
@@ -13492,10 +13513,10 @@
         <v>1.07</v>
       </c>
       <c r="CE28" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="CF28" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="CG28">
         <v>13.5</v>
@@ -13504,7 +13525,7 @@
         <v>1.01</v>
       </c>
       <c r="CI28" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="CJ28">
         <v>1.01</v>
@@ -13671,16 +13692,16 @@
         <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -13707,10 +13728,10 @@
         <v>4.15</v>
       </c>
       <c r="O29" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P29" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q29">
         <v>1.39</v>
@@ -13719,10 +13740,10 @@
         <v>2.86</v>
       </c>
       <c r="S29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T29" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="U29">
         <v>2.04</v>
@@ -13731,10 +13752,10 @@
         <v>1.73</v>
       </c>
       <c r="W29" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="X29" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Y29">
         <v>3.28</v>
@@ -13743,10 +13764,10 @@
         <v>1.31</v>
       </c>
       <c r="AA29" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AB29" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AC29">
         <v>4.25</v>
@@ -13755,10 +13776,10 @@
         <v>1.2</v>
       </c>
       <c r="AE29" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG29">
         <v>19</v>
@@ -13818,7 +13839,7 @@
         <v>1.02</v>
       </c>
       <c r="AZ29" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="BA29">
         <v>1.03</v>
@@ -13830,7 +13851,7 @@
         <v>1.03</v>
       </c>
       <c r="BD29" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="BE29">
         <v>1.09</v>
@@ -13839,10 +13860,10 @@
         <v>5.75</v>
       </c>
       <c r="BG29" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BH29" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BI29">
         <v>1.12</v>
@@ -13854,7 +13875,7 @@
         <v>1.12</v>
       </c>
       <c r="BL29" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="BM29">
         <v>1.36</v>
@@ -13863,10 +13884,10 @@
         <v>3.1</v>
       </c>
       <c r="BO29" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="BP29" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="BQ29">
         <v>1.57</v>
@@ -13875,10 +13896,10 @@
         <v>2.25</v>
       </c>
       <c r="BS29" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="BT29" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BU29">
         <v>2.01</v>
@@ -13887,10 +13908,10 @@
         <v>1.8</v>
       </c>
       <c r="BW29" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BX29" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BY29">
         <v>2.58</v>
@@ -13899,10 +13920,10 @@
         <v>1.44</v>
       </c>
       <c r="CA29" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="CB29" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="CC29">
         <v>3.08</v>
@@ -13911,10 +13932,10 @@
         <v>1.3</v>
       </c>
       <c r="CE29" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="CF29" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="CG29">
         <v>4.75</v>
@@ -13923,10 +13944,10 @@
         <v>1.13</v>
       </c>
       <c r="CI29" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="CJ29" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="CK29">
         <v>5.35</v>
@@ -13935,10 +13956,10 @@
         <v>1.1</v>
       </c>
       <c r="CM29" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="CN29" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="CO29">
         <v>8.9</v>
@@ -13947,10 +13968,10 @@
         <v>1.02</v>
       </c>
       <c r="CQ29" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="CR29" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="CS29">
         <v>10</v>
@@ -13959,10 +13980,10 @@
         <v>1.05</v>
       </c>
       <c r="CU29" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="CV29" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="DA29">
         <v>10</v>
@@ -13971,10 +13992,10 @@
         <v>1.02</v>
       </c>
       <c r="DC29" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="DD29" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="DI29">
         <v>9.300000000000001</v>
@@ -14102,16 +14123,16 @@
         <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G30">
         <v>2.4</v>
@@ -14150,10 +14171,10 @@
         <v>1.78</v>
       </c>
       <c r="S30" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="T30" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="U30">
         <v>3.25</v>
@@ -14174,7 +14195,7 @@
         <v>1.09</v>
       </c>
       <c r="AA30" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AB30">
         <v>1.09</v>
@@ -14246,10 +14267,10 @@
         <v>9</v>
       </c>
       <c r="AY30" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AZ30" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="BA30">
         <v>1.06</v>
@@ -14258,10 +14279,10 @@
         <v>6.8</v>
       </c>
       <c r="BC30" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="BD30" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="BE30">
         <v>1.33</v>
@@ -14270,10 +14291,10 @@
         <v>3.25</v>
       </c>
       <c r="BG30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BH30" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="BI30">
         <v>1.56</v>
@@ -14282,10 +14303,10 @@
         <v>2.27</v>
       </c>
       <c r="BK30" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="BL30" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="BM30">
         <v>2.08</v>
@@ -14294,10 +14315,10 @@
         <v>1.73</v>
       </c>
       <c r="BO30" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="BP30" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BQ30">
         <v>2.98</v>
@@ -14306,10 +14327,10 @@
         <v>1.34</v>
       </c>
       <c r="BS30" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="BT30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BU30">
         <v>3.75</v>
@@ -14330,7 +14351,7 @@
         <v>1.07</v>
       </c>
       <c r="CA30" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="CB30">
         <v>1.07</v>
@@ -14366,10 +14387,10 @@
         <v>1.03</v>
       </c>
       <c r="CM30" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="CN30" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="CS30">
         <v>17</v>
@@ -14527,421 +14548,439 @@
         <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G31">
-        <v>2.88</v>
+        <v>1.67</v>
       </c>
       <c r="H31">
+        <v>2.5</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>1.5</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>1.33</v>
+      </c>
+      <c r="N31">
+        <v>3.25</v>
+      </c>
+      <c r="O31" t="s">
+        <v>265</v>
+      </c>
+      <c r="P31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q31">
+        <v>1.7</v>
+      </c>
+      <c r="R31">
         <v>2.1</v>
       </c>
-      <c r="I31">
+      <c r="S31">
+        <v>1.7</v>
+      </c>
+      <c r="T31">
+        <v>2.1</v>
+      </c>
+      <c r="U31">
+        <v>2.5</v>
+      </c>
+      <c r="V31">
+        <v>1.5</v>
+      </c>
+      <c r="W31" t="s">
+        <v>305</v>
+      </c>
+      <c r="X31" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y31">
+        <v>4.85</v>
+      </c>
+      <c r="Z31">
+        <v>1.16</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC31">
+        <v>6</v>
+      </c>
+      <c r="AD31">
+        <v>1.11</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG31">
+        <v>1.22</v>
+      </c>
+      <c r="AH31">
+        <v>5</v>
+      </c>
+      <c r="AI31">
+        <v>12</v>
+      </c>
+      <c r="AJ31">
+        <v>1.14</v>
+      </c>
+      <c r="AK31">
+        <v>7</v>
+      </c>
+      <c r="AL31">
+        <v>10</v>
+      </c>
+      <c r="AM31">
+        <v>1.02</v>
+      </c>
+      <c r="AN31">
+        <v>1.11</v>
+      </c>
+      <c r="AO31">
+        <v>3.6</v>
+      </c>
+      <c r="AP31">
+        <v>1.03</v>
+      </c>
+      <c r="AQ31">
+        <v>1.06</v>
+      </c>
+      <c r="AR31">
+        <v>4.33</v>
+      </c>
+      <c r="AS31">
+        <v>2.5</v>
+      </c>
+      <c r="AT31">
+        <v>1.5</v>
+      </c>
+      <c r="AU31">
+        <v>2.63</v>
+      </c>
+      <c r="AV31">
+        <v>1.44</v>
+      </c>
+      <c r="AW31">
+        <v>1.02</v>
+      </c>
+      <c r="AX31">
+        <v>11</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA31">
+        <v>1.01</v>
+      </c>
+      <c r="BB31">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>357</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE31">
+        <v>1.22</v>
+      </c>
+      <c r="BF31">
         <v>4</v>
       </c>
-      <c r="J31">
-        <v>2.6</v>
-      </c>
-      <c r="K31">
-        <v>2.2</v>
-      </c>
-      <c r="L31">
-        <v>4.5</v>
-      </c>
-      <c r="M31">
-        <v>1.44</v>
-      </c>
-      <c r="N31">
-        <v>2.63</v>
-      </c>
-      <c r="O31" t="s">
-        <v>254</v>
-      </c>
-      <c r="P31" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q31">
-        <v>2.03</v>
-      </c>
-      <c r="R31">
-        <v>1.78</v>
-      </c>
-      <c r="S31" t="s">
-        <v>289</v>
-      </c>
-      <c r="T31" t="s">
-        <v>280</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>1.36</v>
-      </c>
-      <c r="W31">
-        <v>3</v>
-      </c>
-      <c r="X31">
-        <v>1.36</v>
-      </c>
-      <c r="Y31">
-        <v>6.35</v>
-      </c>
-      <c r="Z31">
-        <v>1.1</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC31">
-        <v>9</v>
-      </c>
-      <c r="AD31">
-        <v>1.07</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF31" t="s">
+      <c r="BG31" t="s">
+        <v>353</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI31">
+        <v>1.32</v>
+      </c>
+      <c r="BJ31">
+        <v>3.1</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>332</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM31">
+        <v>1.73</v>
+      </c>
+      <c r="BN31">
+        <v>2.08</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>273</v>
+      </c>
+      <c r="BQ31">
+        <v>2.15</v>
+      </c>
+      <c r="BR31">
+        <v>1.68</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>427</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>420</v>
+      </c>
+      <c r="BU31">
+        <v>2.75</v>
+      </c>
+      <c r="BV31">
+        <v>1.4</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>306</v>
+      </c>
+      <c r="BY31">
+        <v>4.2</v>
+      </c>
+      <c r="BZ31">
+        <v>1.17</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>406</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>390</v>
+      </c>
+      <c r="CC31">
+        <v>5</v>
+      </c>
+      <c r="CD31">
+        <v>1.14</v>
+      </c>
+      <c r="CE31" t="s">
+        <v>277</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>265</v>
+      </c>
+      <c r="CG31">
+        <v>8.4</v>
+      </c>
+      <c r="CH31">
+        <v>1.03</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>376</v>
+      </c>
+      <c r="CJ31" t="s">
         <v>337</v>
       </c>
-      <c r="AG31">
-        <v>2.2</v>
-      </c>
-      <c r="AH31">
-        <v>3.4</v>
-      </c>
-      <c r="AI31">
-        <v>3.3</v>
-      </c>
-      <c r="AJ31">
-        <v>1.91</v>
-      </c>
-      <c r="AK31">
-        <v>3.3</v>
-      </c>
-      <c r="AL31">
-        <v>3.8</v>
-      </c>
-      <c r="AM31">
-        <v>1.33</v>
-      </c>
-      <c r="AN31">
+      <c r="CK31">
+        <v>8.5</v>
+      </c>
+      <c r="CL31">
+        <v>1.05</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>321</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>352</v>
+      </c>
+      <c r="CO31">
+        <v>9.5</v>
+      </c>
+      <c r="CP31">
+        <v>1.06</v>
+      </c>
+      <c r="CQ31">
+        <v>9.5</v>
+      </c>
+      <c r="CR31">
+        <v>1.06</v>
+      </c>
+      <c r="CS31">
+        <v>12</v>
+      </c>
+      <c r="CT31">
+        <v>1.02</v>
+      </c>
+      <c r="CU31" t="s">
+        <v>362</v>
+      </c>
+      <c r="CV31" t="s">
+        <v>356</v>
+      </c>
+      <c r="DA31">
+        <v>21</v>
+      </c>
+      <c r="DB31">
+        <v>21</v>
+      </c>
+      <c r="DC31" t="s">
+        <v>365</v>
+      </c>
+      <c r="DD31" t="s">
+        <v>365</v>
+      </c>
+      <c r="DE31">
+        <v>21</v>
+      </c>
+      <c r="DF31">
+        <v>21</v>
+      </c>
+      <c r="DG31">
+        <v>21</v>
+      </c>
+      <c r="DH31">
+        <v>21</v>
+      </c>
+      <c r="DI31">
+        <v>1.03</v>
+      </c>
+      <c r="DJ31">
+        <v>8.4</v>
+      </c>
+      <c r="DK31">
+        <v>1.15</v>
+      </c>
+      <c r="DL31">
+        <v>5.5</v>
+      </c>
+      <c r="DO31">
         <v>1.3</v>
       </c>
-      <c r="AO31">
-        <v>1.67</v>
-      </c>
-      <c r="AP31">
-        <v>1.25</v>
-      </c>
-      <c r="AQ31">
-        <v>1.33</v>
-      </c>
-      <c r="AR31">
-        <v>1.83</v>
-      </c>
-      <c r="AS31">
-        <v>1.83</v>
-      </c>
-      <c r="AT31">
-        <v>1.83</v>
-      </c>
-      <c r="AU31">
-        <v>1.83</v>
-      </c>
-      <c r="AV31">
-        <v>1.83</v>
-      </c>
-      <c r="AW31">
-        <v>1.06</v>
-      </c>
-      <c r="AX31">
+      <c r="DP31">
+        <v>3.45</v>
+      </c>
+      <c r="DS31">
+        <v>1.55</v>
+      </c>
+      <c r="DT31">
+        <v>2.38</v>
+      </c>
+      <c r="DW31">
+        <v>1.95</v>
+      </c>
+      <c r="DX31">
+        <v>1.85</v>
+      </c>
+      <c r="EA31">
+        <v>2.5</v>
+      </c>
+      <c r="EB31">
+        <v>1.5</v>
+      </c>
+      <c r="EE31">
+        <v>3.45</v>
+      </c>
+      <c r="EF31">
+        <v>1.3</v>
+      </c>
+      <c r="EI31">
+        <v>11</v>
+      </c>
+      <c r="EJ31">
+        <v>26</v>
+      </c>
+      <c r="EK31">
+        <v>51</v>
+      </c>
+      <c r="EL31">
+        <v>151</v>
+      </c>
+      <c r="EM31">
+        <v>6.5</v>
+      </c>
+      <c r="EN31">
+        <v>11</v>
+      </c>
+      <c r="EO31">
+        <v>34</v>
+      </c>
+      <c r="EP31">
+        <v>101</v>
+      </c>
+      <c r="EQ31">
+        <v>5.5</v>
+      </c>
+      <c r="ER31">
         <v>10</v>
       </c>
-      <c r="AY31">
-        <v>1.06</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>345</v>
-      </c>
-      <c r="BA31">
-        <v>1.05</v>
-      </c>
-      <c r="BB31">
-        <v>7.2</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>337</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>339</v>
-      </c>
-      <c r="BE31">
-        <v>1.33</v>
-      </c>
-      <c r="BF31">
-        <v>3.25</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>257</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI31">
-        <v>1.51</v>
-      </c>
-      <c r="BJ31">
-        <v>2.39</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>406</v>
-      </c>
-      <c r="BM31">
-        <v>2.05</v>
-      </c>
-      <c r="BN31">
-        <v>1.75</v>
-      </c>
-      <c r="BO31" t="s">
-        <v>413</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>274</v>
-      </c>
-      <c r="BQ31">
-        <v>2.8</v>
-      </c>
-      <c r="BR31">
-        <v>1.38</v>
-      </c>
-      <c r="BS31" t="s">
-        <v>415</v>
-      </c>
-      <c r="BT31" t="s">
-        <v>336</v>
-      </c>
-      <c r="BU31">
-        <v>3.75</v>
-      </c>
-      <c r="BV31">
-        <v>1.25</v>
-      </c>
-      <c r="BW31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BX31" t="s">
-        <v>257</v>
-      </c>
-      <c r="BY31">
-        <v>5.9</v>
-      </c>
-      <c r="BZ31">
-        <v>1.08</v>
-      </c>
-      <c r="CA31" t="s">
-        <v>311</v>
-      </c>
-      <c r="CB31" t="s">
-        <v>325</v>
-      </c>
-      <c r="CC31">
-        <v>8</v>
-      </c>
-      <c r="CD31">
-        <v>1.08</v>
-      </c>
-      <c r="CE31" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF31" t="s">
-        <v>346</v>
-      </c>
-      <c r="CG31">
-        <v>11.5</v>
-      </c>
-      <c r="CH31">
-        <v>1.02</v>
-      </c>
-      <c r="CI31" t="s">
-        <v>353</v>
-      </c>
-      <c r="CJ31">
-        <v>1.02</v>
-      </c>
-      <c r="CK31">
-        <v>17</v>
-      </c>
-      <c r="CL31">
-        <v>1.03</v>
-      </c>
-      <c r="CM31" t="s">
-        <v>359</v>
-      </c>
-      <c r="CN31">
-        <v>1.03</v>
-      </c>
-      <c r="CS31">
-        <v>34</v>
-      </c>
-      <c r="CT31">
-        <v>1.01</v>
-      </c>
-      <c r="CU31" t="s">
-        <v>450</v>
-      </c>
-      <c r="CV31">
-        <v>1.01</v>
-      </c>
-      <c r="DI31">
-        <v>1.6</v>
-      </c>
-      <c r="DJ31">
-        <v>2.3</v>
-      </c>
-      <c r="DK31">
-        <v>1.93</v>
-      </c>
-      <c r="DL31">
-        <v>1.93</v>
-      </c>
-      <c r="DM31">
-        <v>1.45</v>
-      </c>
-      <c r="DN31">
-        <v>2.68</v>
-      </c>
-      <c r="DO31">
-        <v>2.6</v>
-      </c>
-      <c r="DP31">
-        <v>1.48</v>
-      </c>
-      <c r="DQ31">
-        <v>1.24</v>
-      </c>
-      <c r="DR31">
-        <v>3.9</v>
-      </c>
-      <c r="DS31">
-        <v>3.8</v>
-      </c>
-      <c r="DT31">
-        <v>1.25</v>
-      </c>
-      <c r="DU31">
-        <v>1.11</v>
-      </c>
-      <c r="DV31">
-        <v>6.6</v>
-      </c>
-      <c r="DW31">
-        <v>5.75</v>
-      </c>
-      <c r="DX31">
-        <v>1.14</v>
-      </c>
-      <c r="DY31">
-        <v>1.02</v>
-      </c>
-      <c r="DZ31">
-        <v>9.85</v>
-      </c>
-      <c r="EA31">
+      <c r="ES31">
+        <v>29</v>
+      </c>
+      <c r="ET31">
+        <v>81</v>
+      </c>
+      <c r="EU31">
         <v>7</v>
       </c>
-      <c r="EB31">
-        <v>1.1</v>
-      </c>
-      <c r="EI31">
-        <v>9</v>
-      </c>
-      <c r="EJ31">
-        <v>9.5</v>
-      </c>
-      <c r="EK31">
-        <v>17</v>
-      </c>
-      <c r="EL31">
-        <v>34</v>
-      </c>
-      <c r="EM31">
-        <v>7.5</v>
-      </c>
-      <c r="EN31">
-        <v>6.5</v>
-      </c>
-      <c r="EO31">
-        <v>12</v>
-      </c>
-      <c r="EP31">
-        <v>29</v>
-      </c>
-      <c r="EQ31">
-        <v>10</v>
-      </c>
-      <c r="ER31">
-        <v>9.5</v>
-      </c>
-      <c r="ES31">
-        <v>15</v>
-      </c>
-      <c r="ET31">
-        <v>34</v>
-      </c>
-      <c r="EU31">
+      <c r="EV31">
+        <v>13</v>
+      </c>
+      <c r="EW31">
+        <v>41</v>
+      </c>
+      <c r="EX31">
+        <v>101</v>
+      </c>
+      <c r="EY31">
+        <v>201</v>
+      </c>
+      <c r="EZ31">
+        <v>201</v>
+      </c>
+      <c r="FA31">
+        <v>201</v>
+      </c>
+      <c r="FB31">
+        <v>201</v>
+      </c>
+      <c r="FC31">
+        <v>11</v>
+      </c>
+      <c r="FD31">
         <v>21</v>
-      </c>
-      <c r="EV31">
-        <v>19</v>
-      </c>
-      <c r="EW31">
-        <v>29</v>
-      </c>
-      <c r="EX31">
-        <v>51</v>
-      </c>
-      <c r="EY31">
-        <v>67</v>
-      </c>
-      <c r="EZ31">
-        <v>51</v>
-      </c>
-      <c r="FA31">
-        <v>81</v>
-      </c>
-      <c r="FB31">
-        <v>126</v>
-      </c>
-      <c r="FC31">
-        <v>41</v>
-      </c>
-      <c r="FD31">
-        <v>41</v>
       </c>
       <c r="FE31">
         <v>51</v>
       </c>
       <c r="FF31">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="FG31">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:163">
@@ -14955,118 +14994,118 @@
         <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G32">
-        <v>2.53</v>
+        <v>2.88</v>
       </c>
       <c r="H32">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="I32">
-        <v>5.49</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="K32">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
-        <v>4.19</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="N32">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="O32" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P32" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q32">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="R32">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="S32" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="T32" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="U32">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="V32">
-        <v>1.28</v>
-      </c>
-      <c r="W32" t="s">
-        <v>268</v>
-      </c>
-      <c r="X32" t="s">
-        <v>253</v>
+        <v>1.36</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>1.36</v>
       </c>
       <c r="Y32">
-        <v>8.4</v>
+        <v>6.35</v>
       </c>
       <c r="Z32">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA32" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AB32" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AC32">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD32">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AE32" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF32">
-        <v>1.04</v>
+        <v>347</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>343</v>
       </c>
       <c r="AG32">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="AH32">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="AI32">
-        <v>4.54</v>
+        <v>3.3</v>
       </c>
       <c r="AJ32">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AK32">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AL32">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="AM32">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AO32">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="AP32">
         <v>1.25</v>
@@ -15075,280 +15114,298 @@
         <v>1.33</v>
       </c>
       <c r="AR32">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AS32">
-        <v>2.21</v>
+        <v>1.83</v>
       </c>
       <c r="AT32">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AU32">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AV32">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AW32">
         <v>1.06</v>
       </c>
       <c r="AX32">
+        <v>10</v>
+      </c>
+      <c r="AY32">
+        <v>1.06</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA32">
+        <v>1.05</v>
+      </c>
+      <c r="BB32">
+        <v>7.2</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>345</v>
+      </c>
+      <c r="BE32">
+        <v>1.33</v>
+      </c>
+      <c r="BF32">
+        <v>3.25</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>271</v>
+      </c>
+      <c r="BI32">
+        <v>1.51</v>
+      </c>
+      <c r="BJ32">
+        <v>2.39</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>259</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>413</v>
+      </c>
+      <c r="BM32">
+        <v>2.05</v>
+      </c>
+      <c r="BN32">
+        <v>1.75</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>420</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ32">
+        <v>2.8</v>
+      </c>
+      <c r="BR32">
+        <v>1.38</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>422</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>341</v>
+      </c>
+      <c r="BU32">
+        <v>3.75</v>
+      </c>
+      <c r="BV32">
+        <v>1.25</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>271</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>260</v>
+      </c>
+      <c r="BY32">
+        <v>5.9</v>
+      </c>
+      <c r="BZ32">
+        <v>1.08</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>316</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>331</v>
+      </c>
+      <c r="CC32">
+        <v>8</v>
+      </c>
+      <c r="CD32">
+        <v>1.08</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>345</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>352</v>
+      </c>
+      <c r="CG32">
+        <v>11.5</v>
+      </c>
+      <c r="CH32">
+        <v>1.02</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>359</v>
+      </c>
+      <c r="CJ32">
+        <v>1.02</v>
+      </c>
+      <c r="CK32">
+        <v>17</v>
+      </c>
+      <c r="CL32">
+        <v>1.03</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>365</v>
+      </c>
+      <c r="CN32">
+        <v>1.03</v>
+      </c>
+      <c r="CS32">
+        <v>34</v>
+      </c>
+      <c r="CT32">
+        <v>1.01</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>457</v>
+      </c>
+      <c r="CV32">
+        <v>1.01</v>
+      </c>
+      <c r="DI32">
+        <v>1.6</v>
+      </c>
+      <c r="DJ32">
+        <v>2.3</v>
+      </c>
+      <c r="DK32">
+        <v>1.93</v>
+      </c>
+      <c r="DL32">
+        <v>1.93</v>
+      </c>
+      <c r="DM32">
+        <v>1.45</v>
+      </c>
+      <c r="DN32">
+        <v>2.68</v>
+      </c>
+      <c r="DO32">
+        <v>2.6</v>
+      </c>
+      <c r="DP32">
+        <v>1.48</v>
+      </c>
+      <c r="DQ32">
+        <v>1.24</v>
+      </c>
+      <c r="DR32">
+        <v>3.9</v>
+      </c>
+      <c r="DS32">
+        <v>3.8</v>
+      </c>
+      <c r="DT32">
+        <v>1.25</v>
+      </c>
+      <c r="DU32">
+        <v>1.11</v>
+      </c>
+      <c r="DV32">
         <v>6.6</v>
       </c>
-      <c r="AY32" t="s">
-        <v>329</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>342</v>
-      </c>
-      <c r="BA32">
+      <c r="DW32">
+        <v>5.75</v>
+      </c>
+      <c r="DX32">
+        <v>1.14</v>
+      </c>
+      <c r="DY32">
+        <v>1.02</v>
+      </c>
+      <c r="DZ32">
+        <v>9.85</v>
+      </c>
+      <c r="EA32">
+        <v>7</v>
+      </c>
+      <c r="EB32">
         <v>1.1</v>
       </c>
-      <c r="BB32">
-        <v>5.35</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>375</v>
-      </c>
-      <c r="BE32">
-        <v>1.46</v>
-      </c>
-      <c r="BF32">
-        <v>2.48</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>256</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>266</v>
-      </c>
-      <c r="BI32">
-        <v>1.82</v>
-      </c>
-      <c r="BJ32">
-        <v>1.9</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>407</v>
-      </c>
-      <c r="BM32">
-        <v>2.51</v>
-      </c>
-      <c r="BN32">
-        <v>1.54</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>270</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>259</v>
-      </c>
-      <c r="BQ32">
-        <v>3.9</v>
-      </c>
-      <c r="BR32">
-        <v>1.22</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>381</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>426</v>
-      </c>
-      <c r="BU32">
-        <v>4.6</v>
-      </c>
-      <c r="BV32">
-        <v>1.15</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>272</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY32">
-        <v>8.4</v>
-      </c>
-      <c r="BZ32">
-        <v>1.03</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>340</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>330</v>
-      </c>
-      <c r="CC32">
-        <v>9.1</v>
-      </c>
-      <c r="CD32">
-        <v>1.02</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>355</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>348</v>
-      </c>
-      <c r="CK32">
+      <c r="EI32">
+        <v>9</v>
+      </c>
+      <c r="EJ32">
+        <v>9.5</v>
+      </c>
+      <c r="EK32">
+        <v>17</v>
+      </c>
+      <c r="EL32">
+        <v>34</v>
+      </c>
+      <c r="EM32">
+        <v>7.5</v>
+      </c>
+      <c r="EN32">
+        <v>6.5</v>
+      </c>
+      <c r="EO32">
+        <v>12</v>
+      </c>
+      <c r="EP32">
+        <v>29</v>
+      </c>
+      <c r="EQ32">
+        <v>10</v>
+      </c>
+      <c r="ER32">
+        <v>9.5</v>
+      </c>
+      <c r="ES32">
         <v>15</v>
       </c>
-      <c r="CL32">
-        <v>1.02</v>
-      </c>
-      <c r="CM32">
-        <v>15</v>
-      </c>
-      <c r="CN32">
-        <v>1.02</v>
-      </c>
-      <c r="DI32">
-        <v>1.34</v>
-      </c>
-      <c r="DJ32">
-        <v>3.32</v>
-      </c>
-      <c r="DK32">
-        <v>1.56</v>
-      </c>
-      <c r="DL32">
-        <v>2.3</v>
-      </c>
-      <c r="DM32">
-        <v>1.24</v>
-      </c>
-      <c r="DN32">
-        <v>3.68</v>
-      </c>
-      <c r="DO32">
-        <v>2.12</v>
-      </c>
-      <c r="DP32">
-        <v>1.73</v>
-      </c>
-      <c r="DQ32">
-        <v>1.11</v>
-      </c>
-      <c r="DR32">
-        <v>5.8</v>
-      </c>
-      <c r="DS32">
-        <v>3.07</v>
-      </c>
-      <c r="DT32">
-        <v>1.33</v>
-      </c>
-      <c r="DU32">
-        <v>1.01</v>
-      </c>
-      <c r="DV32">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="DW32">
-        <v>4.48</v>
-      </c>
-      <c r="DX32">
-        <v>1.17</v>
-      </c>
-      <c r="DY32">
-        <v>1.01</v>
-      </c>
-      <c r="DZ32">
-        <v>11.6</v>
-      </c>
-      <c r="EA32">
-        <v>7.55</v>
-      </c>
-      <c r="EB32">
-        <v>1.06</v>
-      </c>
-      <c r="EE32">
-        <v>11.4</v>
-      </c>
-      <c r="EF32">
-        <v>1.01</v>
-      </c>
-      <c r="EI32">
-        <v>6.5</v>
-      </c>
-      <c r="EJ32">
-        <v>10</v>
-      </c>
-      <c r="EK32">
+      <c r="ET32">
+        <v>34</v>
+      </c>
+      <c r="EU32">
         <v>21</v>
       </c>
-      <c r="EL32">
-        <v>71</v>
-      </c>
-      <c r="EM32">
-        <v>5</v>
-      </c>
-      <c r="EN32">
-        <v>6</v>
-      </c>
-      <c r="EO32">
-        <v>15</v>
-      </c>
-      <c r="EP32">
-        <v>46</v>
-      </c>
-      <c r="EQ32">
-        <v>7.5</v>
-      </c>
-      <c r="ER32">
-        <v>8.5</v>
-      </c>
-      <c r="ES32">
+      <c r="EV32">
         <v>19</v>
       </c>
-      <c r="ET32">
-        <v>71</v>
-      </c>
-      <c r="EU32">
-        <v>15</v>
-      </c>
-      <c r="EV32">
-        <v>18</v>
-      </c>
       <c r="EW32">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="EX32">
+        <v>51</v>
+      </c>
+      <c r="EY32">
+        <v>67</v>
+      </c>
+      <c r="EZ32">
+        <v>51</v>
+      </c>
+      <c r="FA32">
+        <v>81</v>
+      </c>
+      <c r="FB32">
         <v>126</v>
-      </c>
-      <c r="EY32">
-        <v>201</v>
-      </c>
-      <c r="EZ32">
-        <v>201</v>
-      </c>
-      <c r="FA32">
-        <v>201</v>
-      </c>
-      <c r="FB32">
-        <v>201</v>
       </c>
       <c r="FC32">
         <v>41</v>
       </c>
       <c r="FD32">
+        <v>41</v>
+      </c>
+      <c r="FE32">
         <v>51</v>
       </c>
-      <c r="FE32">
+      <c r="FF32">
         <v>101</v>
       </c>
-      <c r="FF32">
-        <v>201</v>
-      </c>
       <c r="FG32">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:163">
@@ -15359,427 +15416,403 @@
         <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G33">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="H33">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="I33">
-        <v>4.5</v>
+        <v>5.49</v>
       </c>
       <c r="J33">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L33">
-        <v>4.5</v>
+        <v>4.19</v>
       </c>
       <c r="M33">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="N33">
-        <v>2.75</v>
-      </c>
-      <c r="O33">
-        <v>1.4</v>
-      </c>
-      <c r="P33">
-        <v>2.75</v>
+        <v>2.41</v>
+      </c>
+      <c r="O33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P33" t="s">
+        <v>278</v>
       </c>
       <c r="Q33">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="R33">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="T33" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="U33">
-        <v>2.75</v>
+        <v>3.48</v>
       </c>
       <c r="V33">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y33">
+        <v>8.4</v>
+      </c>
+      <c r="Z33">
+        <v>1.05</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC33">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD33">
+        <v>1.04</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF33">
+        <v>1.04</v>
+      </c>
+      <c r="AG33">
+        <v>1.87</v>
+      </c>
+      <c r="AH33">
+        <v>3.34</v>
+      </c>
+      <c r="AI33">
+        <v>4.54</v>
+      </c>
+      <c r="AJ33">
+        <v>2.12</v>
+      </c>
+      <c r="AK33">
+        <v>2.9</v>
+      </c>
+      <c r="AL33">
+        <v>3.57</v>
+      </c>
+      <c r="AM33">
+        <v>1.19</v>
+      </c>
+      <c r="AN33">
+        <v>1.33</v>
+      </c>
+      <c r="AO33">
+        <v>1.94</v>
+      </c>
+      <c r="AP33">
+        <v>1.25</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>1.62</v>
+      </c>
+      <c r="AS33">
+        <v>2.21</v>
+      </c>
+      <c r="AT33">
+        <v>1.63</v>
+      </c>
+      <c r="AU33">
+        <v>1.95</v>
+      </c>
+      <c r="AV33">
+        <v>1.81</v>
+      </c>
+      <c r="AW33">
+        <v>1.06</v>
+      </c>
+      <c r="AX33">
+        <v>6.6</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>348</v>
+      </c>
+      <c r="BA33">
+        <v>1.1</v>
+      </c>
+      <c r="BB33">
+        <v>5.35</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>337</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE33">
+        <v>1.46</v>
+      </c>
+      <c r="BF33">
+        <v>2.48</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>259</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>270</v>
+      </c>
+      <c r="BI33">
+        <v>1.82</v>
+      </c>
+      <c r="BJ33">
+        <v>1.9</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>397</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>414</v>
+      </c>
+      <c r="BM33">
+        <v>2.51</v>
+      </c>
+      <c r="BN33">
+        <v>1.54</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>274</v>
+      </c>
+      <c r="BP33" t="s">
         <v>262</v>
       </c>
-      <c r="X33" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y33">
-        <v>6.15</v>
-      </c>
-      <c r="Z33">
-        <v>1.1</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC33">
-        <v>8</v>
-      </c>
-      <c r="AD33">
-        <v>1.08</v>
-      </c>
-      <c r="AE33">
-        <v>8</v>
-      </c>
-      <c r="AF33">
-        <v>1.08</v>
-      </c>
-      <c r="AG33">
-        <v>1.85</v>
-      </c>
-      <c r="AH33">
-        <v>3.6</v>
-      </c>
-      <c r="AI33">
-        <v>4.33</v>
-      </c>
-      <c r="AJ33">
-        <v>1.85</v>
-      </c>
-      <c r="AK33">
-        <v>3.4</v>
-      </c>
-      <c r="AL33">
-        <v>4</v>
-      </c>
-      <c r="AM33">
-        <v>1.2</v>
-      </c>
-      <c r="AN33">
-        <v>1.29</v>
-      </c>
-      <c r="AO33">
-        <v>1.91</v>
-      </c>
-      <c r="AP33">
+      <c r="BQ33">
+        <v>3.9</v>
+      </c>
+      <c r="BR33">
         <v>1.22</v>
       </c>
-      <c r="AQ33">
-        <v>1.3</v>
-      </c>
-      <c r="AR33">
-        <v>1.91</v>
-      </c>
-      <c r="AS33">
-        <v>1.8</v>
-      </c>
-      <c r="AT33">
-        <v>1.91</v>
-      </c>
-      <c r="AU33">
-        <v>1.8</v>
-      </c>
-      <c r="AV33">
-        <v>1.91</v>
-      </c>
-      <c r="AW33">
-        <v>1.05</v>
-      </c>
-      <c r="AX33">
-        <v>11</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>328</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>356</v>
-      </c>
-      <c r="BA33">
-        <v>1.04</v>
-      </c>
-      <c r="BB33">
-        <v>7.5</v>
-      </c>
-      <c r="BC33" t="s">
+      <c r="BS33" t="s">
+        <v>387</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>434</v>
+      </c>
+      <c r="BU33">
+        <v>4.6</v>
+      </c>
+      <c r="BV33">
+        <v>1.15</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>276</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>264</v>
+      </c>
+      <c r="BY33">
+        <v>8.4</v>
+      </c>
+      <c r="BZ33">
+        <v>1.03</v>
+      </c>
+      <c r="CA33" t="s">
         <v>346</v>
       </c>
-      <c r="BD33" t="s">
-        <v>376</v>
-      </c>
-      <c r="BE33">
-        <v>1.29</v>
-      </c>
-      <c r="BF33">
-        <v>3.5</v>
-      </c>
-      <c r="BG33">
-        <v>1.29</v>
-      </c>
-      <c r="BH33">
-        <v>3.5</v>
-      </c>
-      <c r="BI33">
-        <v>1.48</v>
-      </c>
-      <c r="BJ33">
-        <v>2.47</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>392</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>408</v>
-      </c>
-      <c r="BM33">
-        <v>2</v>
-      </c>
-      <c r="BN33">
-        <v>1.85</v>
-      </c>
-      <c r="BO33">
-        <v>2</v>
-      </c>
-      <c r="BP33">
-        <v>1.85</v>
-      </c>
-      <c r="BQ33">
-        <v>2.72</v>
-      </c>
-      <c r="BR33">
-        <v>1.4</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>262</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU33">
-        <v>3.4</v>
-      </c>
-      <c r="BV33">
-        <v>1.3</v>
-      </c>
-      <c r="BW33">
-        <v>3.4</v>
-      </c>
-      <c r="BX33">
-        <v>1.3</v>
-      </c>
-      <c r="BY33">
-        <v>5.65</v>
-      </c>
-      <c r="BZ33">
-        <v>1.09</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>344</v>
-      </c>
       <c r="CB33" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="CC33">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="CD33">
-        <v>1.1</v>
-      </c>
-      <c r="CE33">
-        <v>7</v>
-      </c>
-      <c r="CF33">
-        <v>1.1</v>
-      </c>
-      <c r="CG33">
-        <v>10.5</v>
-      </c>
-      <c r="CH33">
         <v>1.02</v>
       </c>
-      <c r="CI33" t="s">
-        <v>444</v>
-      </c>
-      <c r="CJ33" t="s">
-        <v>352</v>
+      <c r="CE33" t="s">
+        <v>361</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>354</v>
       </c>
       <c r="CK33">
         <v>15</v>
       </c>
       <c r="CL33">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="CM33">
         <v>15</v>
       </c>
       <c r="CN33">
-        <v>1.03</v>
-      </c>
-      <c r="CS33">
-        <v>29</v>
-      </c>
-      <c r="CT33">
+        <v>1.02</v>
+      </c>
+      <c r="DI33">
+        <v>1.34</v>
+      </c>
+      <c r="DJ33">
+        <v>3.32</v>
+      </c>
+      <c r="DK33">
+        <v>1.56</v>
+      </c>
+      <c r="DL33">
+        <v>2.3</v>
+      </c>
+      <c r="DM33">
+        <v>1.24</v>
+      </c>
+      <c r="DN33">
+        <v>3.68</v>
+      </c>
+      <c r="DO33">
+        <v>2.12</v>
+      </c>
+      <c r="DP33">
+        <v>1.73</v>
+      </c>
+      <c r="DQ33">
+        <v>1.11</v>
+      </c>
+      <c r="DR33">
+        <v>5.8</v>
+      </c>
+      <c r="DS33">
+        <v>3.07</v>
+      </c>
+      <c r="DT33">
+        <v>1.33</v>
+      </c>
+      <c r="DU33">
         <v>1.01</v>
       </c>
-      <c r="CU33">
-        <v>29</v>
-      </c>
-      <c r="CV33">
-        <v>1.01</v>
-      </c>
-      <c r="DI33">
-        <v>1.33</v>
-      </c>
-      <c r="DJ33">
-        <v>3.3</v>
-      </c>
-      <c r="DK33">
-        <v>1.55</v>
-      </c>
-      <c r="DL33">
-        <v>2.38</v>
-      </c>
-      <c r="DM33">
-        <v>1.26</v>
-      </c>
-      <c r="DN33">
-        <v>3.7</v>
-      </c>
-      <c r="DO33">
-        <v>2.03</v>
-      </c>
-      <c r="DP33">
-        <v>1.78</v>
-      </c>
-      <c r="DQ33">
-        <v>1.14</v>
-      </c>
-      <c r="DR33">
-        <v>5.75</v>
-      </c>
-      <c r="DS33">
-        <v>2.75</v>
-      </c>
-      <c r="DT33">
-        <v>1.43</v>
-      </c>
-      <c r="DU33">
-        <v>1.03</v>
-      </c>
       <c r="DV33">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="DW33">
-        <v>3.9</v>
+        <v>4.48</v>
       </c>
       <c r="DX33">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="DY33">
         <v>1.01</v>
       </c>
       <c r="DZ33">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="EA33">
-        <v>6</v>
+        <v>7.55</v>
       </c>
       <c r="EB33">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="EE33">
-        <v>9.050000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="EF33">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="EI33">
+        <v>6.5</v>
+      </c>
+      <c r="EJ33">
         <v>10</v>
-      </c>
-      <c r="EJ33">
-        <v>12</v>
       </c>
       <c r="EK33">
         <v>21</v>
       </c>
       <c r="EL33">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="EM33">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="EN33">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="EO33">
         <v>15</v>
       </c>
       <c r="EP33">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="EQ33">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="ER33">
         <v>8.5</v>
       </c>
       <c r="ES33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="ET33">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="EU33">
         <v>15</v>
       </c>
       <c r="EV33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="EW33">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="EX33">
+        <v>126</v>
+      </c>
+      <c r="EY33">
+        <v>201</v>
+      </c>
+      <c r="EZ33">
+        <v>201</v>
+      </c>
+      <c r="FA33">
+        <v>201</v>
+      </c>
+      <c r="FB33">
+        <v>201</v>
+      </c>
+      <c r="FC33">
+        <v>41</v>
+      </c>
+      <c r="FD33">
         <v>51</v>
       </c>
-      <c r="EY33">
+      <c r="FE33">
         <v>101</v>
       </c>
-      <c r="EZ33">
-        <v>81</v>
-      </c>
-      <c r="FA33">
-        <v>81</v>
-      </c>
-      <c r="FB33">
-        <v>126</v>
-      </c>
-      <c r="FC33">
-        <v>29</v>
-      </c>
-      <c r="FD33">
-        <v>29</v>
-      </c>
-      <c r="FE33">
-        <v>51</v>
-      </c>
       <c r="FF33">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="FG33">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:163">
@@ -15790,426 +15823,857 @@
         <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G34">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="H34">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I34">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K34">
         <v>2.2</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N34">
-        <v>3.25</v>
-      </c>
-      <c r="O34" t="s">
-        <v>252</v>
-      </c>
-      <c r="P34" t="s">
-        <v>262</v>
+        <v>2.75</v>
+      </c>
+      <c r="O34">
+        <v>1.4</v>
+      </c>
+      <c r="P34">
+        <v>2.75</v>
       </c>
       <c r="Q34">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R34">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S34" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="T34" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="U34">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V34">
-        <v>1.44</v>
-      </c>
-      <c r="W34">
-        <v>2.63</v>
-      </c>
-      <c r="X34">
-        <v>1.44</v>
+        <v>1.4</v>
+      </c>
+      <c r="W34" t="s">
+        <v>266</v>
+      </c>
+      <c r="X34" t="s">
+        <v>255</v>
       </c>
       <c r="Y34">
-        <v>5.15</v>
+        <v>6.15</v>
       </c>
       <c r="Z34">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AA34" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB34">
-        <v>1.14</v>
+        <v>329</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>343</v>
       </c>
       <c r="AC34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD34">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AE34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF34">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG34">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AH34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AI34">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="AJ34">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="AK34">
         <v>3.4</v>
       </c>
       <c r="AL34">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="AM34">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AN34">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AO34">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ34">
         <v>1.3</v>
       </c>
       <c r="AR34">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="AS34">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AT34">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AU34">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AV34">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AW34">
+        <v>1.05</v>
+      </c>
+      <c r="AX34">
+        <v>11</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>362</v>
+      </c>
+      <c r="BA34">
         <v>1.04</v>
       </c>
-      <c r="AX34">
-        <v>13</v>
-      </c>
-      <c r="AY34">
-        <v>1.04</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>358</v>
-      </c>
-      <c r="BA34">
-        <v>1.02</v>
-      </c>
       <c r="BB34">
-        <v>9</v>
-      </c>
-      <c r="BC34">
-        <v>1.02</v>
+        <v>7.5</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>352</v>
       </c>
       <c r="BD34" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="BE34">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BF34">
-        <v>4</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>327</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>379</v>
+        <v>3.5</v>
+      </c>
+      <c r="BG34">
+        <v>1.29</v>
+      </c>
+      <c r="BH34">
+        <v>3.5</v>
       </c>
       <c r="BI34">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BJ34">
-        <v>2.93</v>
+        <v>2.47</v>
       </c>
       <c r="BK34" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="BL34" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="BM34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="BN34">
-        <v>2.05</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>413</v>
+        <v>1.85</v>
+      </c>
+      <c r="BO34">
+        <v>2</v>
+      </c>
+      <c r="BP34">
+        <v>1.85</v>
       </c>
       <c r="BQ34">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="BR34">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="BS34" t="s">
-        <v>405</v>
+        <v>266</v>
       </c>
       <c r="BT34" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="BU34">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="BV34">
-        <v>1.4</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>262</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>252</v>
+        <v>1.3</v>
+      </c>
+      <c r="BW34">
+        <v>3.4</v>
+      </c>
+      <c r="BX34">
+        <v>1.3</v>
       </c>
       <c r="BY34">
-        <v>4.5</v>
+        <v>5.65</v>
       </c>
       <c r="BZ34">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="CA34" t="s">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="CB34" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="CC34">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="CD34">
-        <v>1.14</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>342</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>332</v>
+        <v>1.1</v>
+      </c>
+      <c r="CE34">
+        <v>7</v>
+      </c>
+      <c r="CF34">
+        <v>1.1</v>
       </c>
       <c r="CG34">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="CH34">
         <v>1.02</v>
       </c>
       <c r="CI34" t="s">
-        <v>445</v>
-      </c>
-      <c r="CJ34">
-        <v>1.02</v>
+        <v>451</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>358</v>
       </c>
       <c r="CK34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CL34">
-        <v>1.05</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>357</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>351</v>
+        <v>1.03</v>
+      </c>
+      <c r="CM34">
+        <v>15</v>
+      </c>
+      <c r="CN34">
+        <v>1.03</v>
       </c>
       <c r="CS34">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="CT34">
         <v>1.01</v>
       </c>
-      <c r="CU34" t="s">
-        <v>451</v>
+      <c r="CU34">
+        <v>29</v>
       </c>
       <c r="CV34">
         <v>1.01</v>
       </c>
-      <c r="DA34">
-        <v>51</v>
-      </c>
-      <c r="DB34">
-        <v>50</v>
-      </c>
-      <c r="DC34">
-        <v>51</v>
-      </c>
-      <c r="DD34">
-        <v>50</v>
-      </c>
       <c r="DI34">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="DJ34">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="DK34">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="DL34">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="DM34">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="DN34">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="DO34">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="DP34">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="DQ34">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="DR34">
-        <v>3.55</v>
+        <v>5.75</v>
       </c>
       <c r="DS34">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="DT34">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="DU34">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="DV34">
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="DW34">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="DX34">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="DY34">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="DZ34">
-        <v>8.6</v>
+        <v>10.9</v>
+      </c>
+      <c r="EA34">
+        <v>6</v>
+      </c>
+      <c r="EB34">
+        <v>1.13</v>
+      </c>
+      <c r="EE34">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="EF34">
+        <v>1.03</v>
       </c>
       <c r="EI34">
+        <v>10</v>
+      </c>
+      <c r="EJ34">
         <v>12</v>
       </c>
-      <c r="EJ34">
-        <v>11</v>
-      </c>
       <c r="EK34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="EL34">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="EM34">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="EN34">
         <v>6.5</v>
       </c>
       <c r="EO34">
+        <v>15</v>
+      </c>
+      <c r="EP34">
+        <v>34</v>
+      </c>
+      <c r="EQ34">
+        <v>8.5</v>
+      </c>
+      <c r="ER34">
+        <v>8.5</v>
+      </c>
+      <c r="ES34">
+        <v>15</v>
+      </c>
+      <c r="ET34">
+        <v>41</v>
+      </c>
+      <c r="EU34">
+        <v>15</v>
+      </c>
+      <c r="EV34">
+        <v>15</v>
+      </c>
+      <c r="EW34">
+        <v>26</v>
+      </c>
+      <c r="EX34">
+        <v>51</v>
+      </c>
+      <c r="EY34">
+        <v>101</v>
+      </c>
+      <c r="EZ34">
+        <v>81</v>
+      </c>
+      <c r="FA34">
+        <v>81</v>
+      </c>
+      <c r="FB34">
+        <v>126</v>
+      </c>
+      <c r="FC34">
+        <v>29</v>
+      </c>
+      <c r="FD34">
+        <v>29</v>
+      </c>
+      <c r="FE34">
+        <v>51</v>
+      </c>
+      <c r="FF34">
+        <v>101</v>
+      </c>
+      <c r="FG34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:163">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35">
+        <v>2.88</v>
+      </c>
+      <c r="H35">
+        <v>2.25</v>
+      </c>
+      <c r="I35">
+        <v>3.4</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>2.2</v>
+      </c>
+      <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
+        <v>1.33</v>
+      </c>
+      <c r="N35">
+        <v>3.25</v>
+      </c>
+      <c r="O35" t="s">
+        <v>255</v>
+      </c>
+      <c r="P35" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q35">
+        <v>1.75</v>
+      </c>
+      <c r="R35">
+        <v>2.05</v>
+      </c>
+      <c r="S35" t="s">
+        <v>289</v>
+      </c>
+      <c r="T35" t="s">
+        <v>300</v>
+      </c>
+      <c r="U35">
+        <v>2.63</v>
+      </c>
+      <c r="V35">
+        <v>1.44</v>
+      </c>
+      <c r="W35">
+        <v>2.63</v>
+      </c>
+      <c r="X35">
+        <v>1.44</v>
+      </c>
+      <c r="Y35">
+        <v>5.15</v>
+      </c>
+      <c r="Z35">
+        <v>1.14</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB35">
+        <v>1.14</v>
+      </c>
+      <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>1.1</v>
+      </c>
+      <c r="AE35">
+        <v>7</v>
+      </c>
+      <c r="AF35">
+        <v>1.1</v>
+      </c>
+      <c r="AG35">
+        <v>2.3</v>
+      </c>
+      <c r="AH35">
+        <v>3.4</v>
+      </c>
+      <c r="AI35">
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <v>2.4</v>
+      </c>
+      <c r="AK35">
+        <v>3.4</v>
+      </c>
+      <c r="AL35">
+        <v>2.88</v>
+      </c>
+      <c r="AM35">
+        <v>1.36</v>
+      </c>
+      <c r="AN35">
+        <v>1.3</v>
+      </c>
+      <c r="AO35">
+        <v>1.57</v>
+      </c>
+      <c r="AP35">
+        <v>1.4</v>
+      </c>
+      <c r="AQ35">
+        <v>1.3</v>
+      </c>
+      <c r="AR35">
+        <v>1.53</v>
+      </c>
+      <c r="AS35">
+        <v>1.62</v>
+      </c>
+      <c r="AT35">
+        <v>2.2</v>
+      </c>
+      <c r="AU35">
+        <v>1.67</v>
+      </c>
+      <c r="AV35">
+        <v>2.1</v>
+      </c>
+      <c r="AW35">
+        <v>1.04</v>
+      </c>
+      <c r="AX35">
+        <v>13</v>
+      </c>
+      <c r="AY35">
+        <v>1.04</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>364</v>
+      </c>
+      <c r="BA35">
+        <v>1.02</v>
+      </c>
+      <c r="BB35">
+        <v>9</v>
+      </c>
+      <c r="BC35">
+        <v>1.02</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>384</v>
+      </c>
+      <c r="BE35">
+        <v>1.22</v>
+      </c>
+      <c r="BF35">
+        <v>4</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>265</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI35">
+        <v>1.36</v>
+      </c>
+      <c r="BJ35">
+        <v>2.93</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>390</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>416</v>
+      </c>
+      <c r="BM35">
+        <v>1.75</v>
+      </c>
+      <c r="BN35">
+        <v>2.05</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>279</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>420</v>
+      </c>
+      <c r="BQ35">
+        <v>2.3</v>
+      </c>
+      <c r="BR35">
+        <v>1.56</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>411</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>280</v>
+      </c>
+      <c r="BU35">
+        <v>2.75</v>
+      </c>
+      <c r="BV35">
+        <v>1.4</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>266</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>255</v>
+      </c>
+      <c r="BY35">
+        <v>4.5</v>
+      </c>
+      <c r="BZ35">
+        <v>1.15</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>412</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>353</v>
+      </c>
+      <c r="CC35">
+        <v>5.5</v>
+      </c>
+      <c r="CD35">
+        <v>1.14</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>348</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>337</v>
+      </c>
+      <c r="CG35">
+        <v>9.1</v>
+      </c>
+      <c r="CH35">
+        <v>1.02</v>
+      </c>
+      <c r="CI35" t="s">
+        <v>452</v>
+      </c>
+      <c r="CJ35">
+        <v>1.02</v>
+      </c>
+      <c r="CK35">
         <v>11</v>
       </c>
-      <c r="EP34">
+      <c r="CL35">
+        <v>1.05</v>
+      </c>
+      <c r="CM35" t="s">
+        <v>363</v>
+      </c>
+      <c r="CN35" t="s">
+        <v>357</v>
+      </c>
+      <c r="CS35">
+        <v>23</v>
+      </c>
+      <c r="CT35">
+        <v>1.01</v>
+      </c>
+      <c r="CU35" t="s">
+        <v>458</v>
+      </c>
+      <c r="CV35">
+        <v>1.01</v>
+      </c>
+      <c r="DA35">
+        <v>51</v>
+      </c>
+      <c r="DB35">
+        <v>50</v>
+      </c>
+      <c r="DC35">
+        <v>51</v>
+      </c>
+      <c r="DD35">
+        <v>50</v>
+      </c>
+      <c r="DI35">
+        <v>1.65</v>
+      </c>
+      <c r="DJ35">
+        <v>2.2</v>
+      </c>
+      <c r="DK35">
+        <v>2</v>
+      </c>
+      <c r="DL35">
+        <v>1.85</v>
+      </c>
+      <c r="DM35">
+        <v>1.48</v>
+      </c>
+      <c r="DN35">
+        <v>2.6</v>
+      </c>
+      <c r="DO35">
+        <v>2.68</v>
+      </c>
+      <c r="DP35">
+        <v>1.45</v>
+      </c>
+      <c r="DQ35">
+        <v>1.28</v>
+      </c>
+      <c r="DR35">
+        <v>3.55</v>
+      </c>
+      <c r="DS35">
+        <v>3.8</v>
+      </c>
+      <c r="DT35">
+        <v>1.25</v>
+      </c>
+      <c r="DU35">
+        <v>1.14</v>
+      </c>
+      <c r="DV35">
+        <v>5.75</v>
+      </c>
+      <c r="DW35">
+        <v>5.75</v>
+      </c>
+      <c r="DX35">
+        <v>1.14</v>
+      </c>
+      <c r="DY35">
+        <v>1.04</v>
+      </c>
+      <c r="DZ35">
+        <v>8.6</v>
+      </c>
+      <c r="EI35">
+        <v>12</v>
+      </c>
+      <c r="EJ35">
+        <v>11</v>
+      </c>
+      <c r="EK35">
+        <v>17</v>
+      </c>
+      <c r="EL35">
+        <v>29</v>
+      </c>
+      <c r="EM35">
+        <v>9.5</v>
+      </c>
+      <c r="EN35">
+        <v>6.5</v>
+      </c>
+      <c r="EO35">
+        <v>11</v>
+      </c>
+      <c r="EP35">
         <v>21</v>
       </c>
-      <c r="EQ34">
+      <c r="EQ35">
         <v>12</v>
       </c>
-      <c r="ER34">
+      <c r="ER35">
         <v>9.5</v>
       </c>
-      <c r="ES34">
+      <c r="ES35">
         <v>12</v>
       </c>
-      <c r="ET34">
+      <c r="ET35">
         <v>29</v>
       </c>
-      <c r="EU34">
+      <c r="EU35">
         <v>23</v>
       </c>
-      <c r="EV34">
+      <c r="EV35">
         <v>17</v>
       </c>
-      <c r="EW34">
+      <c r="EW35">
         <v>23</v>
       </c>
-      <c r="EX34">
+      <c r="EX35">
         <v>41</v>
       </c>
-      <c r="EY34">
+      <c r="EY35">
         <v>51</v>
       </c>
-      <c r="EZ34">
+      <c r="EZ35">
         <v>41</v>
       </c>
-      <c r="FA34">
+      <c r="FA35">
         <v>51</v>
       </c>
-      <c r="FB34">
+      <c r="FB35">
         <v>81</v>
       </c>
-      <c r="FC34">
+      <c r="FC35">
         <v>41</v>
       </c>
-      <c r="FD34">
+      <c r="FD35">
         <v>41</v>
       </c>
-      <c r="FE34">
+      <c r="FE35">
         <v>41</v>
       </c>
-      <c r="FF34">
+      <c r="FF35">
         <v>67</v>
       </c>
-      <c r="FG34">
+      <c r="FG35">
         <v>151</v>
       </c>
     </row>
